--- a/documentation/MultiUserIncreaseOc.xlsx
+++ b/documentation/MultiUserIncreaseOc.xlsx
@@ -473,34 +473,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>683.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>39.0</v>
+        <v>19.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>57.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>31.0</v>
+        <v>11.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>31.0</v>
+        <v>14.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -508,34 +508,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>36.0</v>
-      </c>
       <c r="H2" t="n" s="0">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -543,34 +543,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
         <v>24.0</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>25.0</v>
-      </c>
       <c r="D3" t="n" s="0">
-        <v>85.0</v>
+        <v>24.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>32.0</v>
+        <v>7.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>71.0</v>
+        <v>7.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>21.0</v>
+        <v>50.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -578,34 +578,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>35.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>82.0</v>
+        <v>10.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>53.0</v>
+        <v>12.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -613,34 +613,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>46.0</v>
+        <v>75.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>64.0</v>
+        <v>33.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>225.0</v>
+        <v>16.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>205.0</v>
+        <v>20.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>52.0</v>
+        <v>32.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>55.0</v>
+        <v>21.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>37.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -648,34 +648,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>28.0</v>
+        <v>53.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>631.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>187.0</v>
+        <v>7.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>22.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -683,34 +683,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>30.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>121.0</v>
+        <v>6.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>29.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>134.0</v>
+        <v>47.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>31.0</v>
+        <v>17.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -718,34 +718,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="C8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="D8" t="n" s="0">
-        <v>39.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>239.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>42.0</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>25.0</v>
-      </c>
       <c r="I8" t="n" s="0">
-        <v>43.0</v>
+        <v>9.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -753,34 +753,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>30.0</v>
+        <v>9.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>58.0</v>
+        <v>8.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>131.0</v>
+        <v>14.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -788,34 +788,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>143.0</v>
+        <v>10.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>92.0</v>
+        <v>9.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>28.0</v>
+        <v>14.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -823,34 +823,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>52.0</v>
+        <v>14.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>53.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>33.0</v>
+        <v>61.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -858,34 +858,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>86.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>41.0</v>
+        <v>6.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -893,34 +893,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>23.0</v>
+        <v>58.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>67.0</v>
+        <v>11.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>81.0</v>
+        <v>10.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>53.0</v>
+        <v>10.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>25.0</v>
+        <v>8.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -928,34 +928,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>80.0</v>
+        <v>10.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>68.0</v>
+        <v>20.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>64.0</v>
+        <v>14.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>88.0</v>
+        <v>15.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>434.0</v>
+        <v>9.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>98.0</v>
+        <v>26.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>49.0</v>
+        <v>29.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>70.0</v>
+        <v>17.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>34.0</v>
+        <v>43.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>40.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -963,34 +963,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>294.0</v>
+        <v>9.0</v>
       </c>
       <c r="C15" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
         <v>25.0</v>
       </c>
-      <c r="D15" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="E15" t="n" s="0">
-        <v>38.0</v>
-      </c>
       <c r="F15" t="n" s="0">
-        <v>418.0</v>
+        <v>41.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>154.0</v>
+        <v>22.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -998,34 +998,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>236.0</v>
+        <v>49.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>32.0</v>
+        <v>13.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>29.0</v>
+        <v>6.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>261.0</v>
+        <v>7.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>31.0</v>
+        <v>9.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>48.0</v>
+        <v>26.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>55.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1033,34 +1033,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>101.0</v>
+        <v>26.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>36.0</v>
+        <v>14.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>190.0</v>
+        <v>5.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>53.0</v>
+        <v>12.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>23.0</v>
+        <v>160.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>114.0</v>
+        <v>6.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -1068,34 +1068,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>60.0</v>
+        <v>13.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>33.0</v>
+        <v>49.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>63.0</v>
+        <v>13.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>67.0</v>
+        <v>14.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>91.0</v>
+        <v>8.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -1103,34 +1103,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>58.0</v>
+        <v>17.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>59.0</v>
+        <v>14.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>103.0</v>
+        <v>37.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>34.0</v>
+        <v>14.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>90.0</v>
+        <v>8.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -1138,34 +1138,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>31.0</v>
+        <v>18.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>88.0</v>
+        <v>22.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>38.0</v>
+        <v>8.0</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>46.0</v>
+        <v>12.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
@@ -1191,34 +1191,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>19.0</v>
+        <v>43.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>13.0</v>
+        <v>30.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1226,34 +1226,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>49.0</v>
+        <v>10.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>46.0</v>
+        <v>21.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>19.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>48.0</v>
+        <v>16.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1261,34 +1261,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="J3" t="n" s="0">
         <v>14.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>69.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1296,34 +1296,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>34.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
         <v>14.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>48.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>47.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>49.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1331,34 +1331,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>42.0</v>
+        <v>19.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>59.0</v>
+        <v>31.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>58.0</v>
+        <v>30.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>36.0</v>
+        <v>64.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>53.0</v>
+        <v>41.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>39.0</v>
+        <v>15.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>99.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -1366,34 +1366,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>23.0</v>
+        <v>84.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>106.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1401,34 +1401,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="E7" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="F7" t="n" s="0">
-        <v>19.0</v>
+        <v>78.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>39.0</v>
+        <v>10.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>81.0</v>
+        <v>10.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>147.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1436,34 +1436,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>65.0</v>
+        <v>11.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>46.0</v>
+        <v>8.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>15.0</v>
+        <v>35.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>144.0</v>
+        <v>10.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>15.0</v>
+        <v>85.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>77.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1471,34 +1471,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
       <c r="C9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="D9" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="E9" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>31.0</v>
+        <v>9.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>68.0</v>
+        <v>9.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>147.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -1506,34 +1506,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>17.0</v>
+        <v>56.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>35.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>107.0</v>
+        <v>7.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>130.0</v>
+        <v>12.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>47.0</v>
+        <v>18.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>132.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -1541,34 +1541,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>50.0</v>
+        <v>7.0</v>
       </c>
       <c r="C11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="D11" t="n" s="0">
-        <v>42.0</v>
-      </c>
       <c r="E11" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>66.0</v>
+        <v>13.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>121.0</v>
+        <v>8.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>42.0</v>
+        <v>5.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>106.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1576,34 +1576,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>74.0</v>
+        <v>41.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>52.0</v>
+        <v>8.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>124.0</v>
+        <v>13.0</v>
       </c>
       <c r="E12" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
         <v>28.0</v>
       </c>
-      <c r="F12" t="n" s="0">
-        <v>63.0</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="H12" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>163.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -1611,34 +1611,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>65.0</v>
+        <v>11.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>54.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>34.0</v>
+        <v>12.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>93.0</v>
+        <v>11.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>91.0</v>
+        <v>6.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>88.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -1646,34 +1646,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>42.0</v>
+        <v>30.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>69.0</v>
+        <v>32.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>47.0</v>
+        <v>11.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>49.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>58.0</v>
+        <v>9.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>74.0</v>
+        <v>11.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>47.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -1681,34 +1681,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>71.0</v>
+        <v>11.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>38.0</v>
+        <v>8.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>78.0</v>
+        <v>14.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>51.0</v>
+        <v>12.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>93.0</v>
+        <v>9.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>14.0</v>
+        <v>61.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>63.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -1716,34 +1716,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>43.0</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>52.0</v>
+        <v>49.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>123.0</v>
+        <v>13.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>217.0</v>
+        <v>12.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>40.0</v>
+        <v>91.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>56.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1751,34 +1751,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>23.0</v>
+        <v>53.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>73.0</v>
+        <v>7.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>15.0</v>
+        <v>43.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>29.0</v>
+        <v>60.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>40.0</v>
+        <v>12.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -1786,34 +1786,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>29.0</v>
+        <v>11.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>101.0</v>
+        <v>9.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>21.0</v>
+        <v>54.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>557.0</v>
+        <v>7.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>89.0</v>
+        <v>17.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>62.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -1821,34 +1821,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>79.0</v>
+        <v>10.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>43.0</v>
+        <v>6.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>28.0</v>
+        <v>11.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>90.0</v>
+        <v>11.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -1856,34 +1856,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>32.0</v>
+        <v>17.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>116.0</v>
+        <v>11.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>111.0</v>
+        <v>9.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>182.0</v>
+        <v>6.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>48.0</v>
+        <v>7.0</v>
       </c>
       <c r="I20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
         <v>19.0</v>
-      </c>
-      <c r="J20" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="K20" t="n" s="0">
-        <v>102.0</v>
       </c>
     </row>
   </sheetData>
@@ -1909,34 +1909,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>23.0</v>
+        <v>56.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>21.0</v>
+        <v>68.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>17.0</v>
+        <v>44.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>155.0</v>
+        <v>51.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>21.0</v>
+        <v>98.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1944,34 +1944,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>18.0</v>
+        <v>84.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>18.0</v>
+        <v>68.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>13.0</v>
+        <v>31.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>25.0</v>
+        <v>103.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>13.0</v>
+        <v>64.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>40.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1979,34 +1979,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
         <v>17.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="K3" t="n" s="0">
-        <v>29.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2014,34 +2014,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>17.0</v>
+        <v>115.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>26.0</v>
+        <v>168.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>13.0</v>
+        <v>42.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>16.0</v>
+        <v>35.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>17.0</v>
+        <v>155.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>26.0</v>
+        <v>47.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>18.0</v>
+        <v>42.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>23.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -2049,34 +2049,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>27.0</v>
+        <v>104.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>81.0</v>
+        <v>169.0</v>
       </c>
       <c r="F5" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
         <v>61.0</v>
       </c>
-      <c r="G5" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>54.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>57.0</v>
-      </c>
       <c r="J5" t="n" s="0">
-        <v>38.0</v>
+        <v>87.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>56.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2084,34 +2084,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>16.0</v>
+        <v>41.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>16.0</v>
+        <v>145.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>22.0</v>
+        <v>124.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>32.0</v>
+        <v>11.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>27.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -2119,34 +2119,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>18.0</v>
+        <v>44.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>11.0</v>
+        <v>152.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>47.0</v>
+        <v>6.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>28.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -2154,34 +2154,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>19.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>15.0</v>
+        <v>159.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>19.0</v>
+        <v>104.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>17.0</v>
+        <v>50.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>33.0</v>
+        <v>42.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>25.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -2189,34 +2189,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>30.0</v>
+        <v>92.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>20.0</v>
+        <v>296.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>219.0</v>
+        <v>45.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>43.0</v>
+        <v>73.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>21.0</v>
+        <v>89.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -2224,34 +2224,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
         <v>44.0</v>
       </c>
-      <c r="D10" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>161.0</v>
-      </c>
       <c r="H10" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>14.0</v>
+        <v>124.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>82.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2259,34 +2259,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>19.0</v>
+        <v>36.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>80.0</v>
+        <v>16.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>20.0</v>
+        <v>84.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>38.0</v>
+        <v>16.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>16.0</v>
+        <v>41.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>127.0</v>
+        <v>84.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>22.0</v>
+        <v>101.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>31.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -2294,34 +2294,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>27.0</v>
+        <v>59.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>96.0</v>
+        <v>40.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>39.0</v>
+        <v>13.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>101.0</v>
+        <v>15.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>21.0</v>
+        <v>51.0</v>
       </c>
       <c r="I12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
         <v>52.0</v>
       </c>
-      <c r="J12" t="n" s="0">
-        <v>17.0</v>
-      </c>
       <c r="K12" t="n" s="0">
-        <v>36.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -2329,34 +2329,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>27.0</v>
+        <v>94.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>29.0</v>
+        <v>49.0</v>
       </c>
       <c r="D13" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
         <v>23.0</v>
       </c>
-      <c r="E13" t="n" s="0">
-        <v>156.0</v>
-      </c>
-      <c r="F13" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="G13" t="n" s="0">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>15.0</v>
+        <v>87.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>38.0</v>
+        <v>87.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>25.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -2364,34 +2364,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>56.0</v>
+        <v>26.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>99.0</v>
+        <v>95.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>93.0</v>
+        <v>74.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>123.0</v>
+        <v>27.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>53.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>59.0</v>
+        <v>10.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>29.0</v>
+        <v>66.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>97.0</v>
+        <v>51.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>54.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -2399,34 +2399,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>76.0</v>
+        <v>70.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>90.0</v>
+        <v>81.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>28.0</v>
+        <v>58.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>158.0</v>
+        <v>14.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="H15" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
         <v>27.0</v>
-      </c>
-      <c r="I15" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="J15" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="K15" t="n" s="0">
-        <v>20.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -2434,34 +2434,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>31.0</v>
+        <v>53.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>39.0</v>
+        <v>21.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>35.0</v>
+        <v>102.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>118.0</v>
+        <v>74.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>55.0</v>
+        <v>30.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>28.0</v>
+        <v>96.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>45.0</v>
+        <v>115.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>26.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -2469,34 +2469,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>31.0</v>
+        <v>100.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>28.0</v>
+        <v>118.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>33.0</v>
+        <v>23.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>122.0</v>
+        <v>9.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="I17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
         <v>47.0</v>
-      </c>
-      <c r="J17" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="K17" t="n" s="0">
-        <v>27.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -2504,34 +2504,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>78.0</v>
+        <v>23.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>28.0</v>
+        <v>70.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>46.0</v>
+        <v>88.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>151.0</v>
+        <v>15.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>24.0</v>
+        <v>71.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>272.0</v>
+        <v>67.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>38.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -2539,34 +2539,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>214.0</v>
+        <v>43.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>34.0</v>
+        <v>14.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>57.0</v>
+        <v>14.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>30.0</v>
+        <v>42.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>34.0</v>
+        <v>7.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>42.0</v>
+        <v>69.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>223.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -2574,34 +2574,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>31.0</v>
+        <v>55.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>52.0</v>
+        <v>36.0</v>
       </c>
       <c r="D20" t="n" s="0">
         <v>30.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>28.0</v>
+        <v>40.0</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>46.0</v>
+        <v>76.0</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>205.0</v>
+        <v>14.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -2627,34 +2627,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>42.0</v>
+        <v>265.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>20.0</v>
+        <v>194.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>17.0</v>
+        <v>88.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>33.0</v>
+        <v>308.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>44.0</v>
+        <v>27.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>24.0</v>
+        <v>257.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>24.0</v>
+        <v>162.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>13.0</v>
+        <v>119.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>75.0</v>
+        <v>152.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>14.0</v>
+        <v>478.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -2662,34 +2662,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>29.0</v>
+        <v>492.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>243.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>53.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>16.0</v>
-      </c>
       <c r="I2" t="n" s="0">
-        <v>19.0</v>
+        <v>183.0</v>
       </c>
       <c r="J2" t="n" s="0">
         <v>150.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>18.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -2697,34 +2697,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>43.0</v>
+        <v>278.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>17.0</v>
+        <v>192.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>23.0</v>
+        <v>128.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>82.0</v>
+        <v>12.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>12.0</v>
+        <v>52.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>59.0</v>
+        <v>171.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>27.0</v>
+        <v>316.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>14.0</v>
+        <v>70.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>150.0</v>
+        <v>260.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>22.0</v>
+        <v>446.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -2732,34 +2732,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>29.0</v>
+        <v>338.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>15.0</v>
+        <v>331.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>13.0</v>
+        <v>124.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>51.0</v>
+        <v>235.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>33.0</v>
+        <v>153.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>36.0</v>
+        <v>59.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>16.0</v>
+        <v>235.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>60.0</v>
+        <v>252.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>17.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -2767,34 +2767,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>57.0</v>
+        <v>320.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>64.0</v>
+        <v>190.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>34.0</v>
+        <v>162.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>198.0</v>
+        <v>206.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>85.0</v>
+        <v>54.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>61.0</v>
+        <v>280.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>224.0</v>
+        <v>252.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>63.0</v>
+        <v>147.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>36.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -2802,34 +2802,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>10.0</v>
+        <v>189.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>17.0</v>
+        <v>138.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>451.0</v>
+        <v>9.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>21.0</v>
+        <v>262.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>42.0</v>
+        <v>81.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>47.0</v>
+        <v>105.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>14.0</v>
+        <v>256.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>26.0</v>
+        <v>184.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>15.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -2837,34 +2837,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>30.0</v>
+        <v>170.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>17.0</v>
+        <v>313.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>169.0</v>
+        <v>358.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>16.0</v>
+        <v>138.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>33.0</v>
+        <v>133.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>56.0</v>
+        <v>220.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>18.0</v>
+        <v>53.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -2872,34 +2872,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>42.0</v>
+        <v>32.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>18.0</v>
+        <v>191.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>27.0</v>
+        <v>72.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>106.0</v>
+        <v>250.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>23.0</v>
+        <v>215.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>24.0</v>
+        <v>76.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>74.0</v>
+        <v>97.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>27.0</v>
+        <v>195.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>27.0</v>
+        <v>150.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>16.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -2907,34 +2907,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>31.0</v>
+        <v>184.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>19.0</v>
+        <v>139.0</v>
       </c>
       <c r="E9" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
         <v>64.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>119.0</v>
-      </c>
-      <c r="I9" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="J9" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="K9" t="n" s="0">
-        <v>48.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -2942,34 +2942,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>20.0</v>
+        <v>371.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>11.0</v>
+        <v>116.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>44.0</v>
+        <v>365.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>30.0</v>
+        <v>68.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>129.0</v>
+        <v>85.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>44.0</v>
+        <v>263.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>29.0</v>
+        <v>112.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>17.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -2977,34 +2977,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>30.0</v>
+        <v>424.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>16.0</v>
+        <v>238.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>16.0</v>
+        <v>143.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>26.0</v>
+        <v>265.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>49.0</v>
+        <v>151.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>64.0</v>
+        <v>441.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>142.0</v>
+        <v>34.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>22.0</v>
+        <v>51.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>58.0</v>
+        <v>111.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>23.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -3012,34 +3012,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>31.0</v>
+        <v>278.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>21.0</v>
+        <v>92.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>54.0</v>
+        <v>189.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>188.0</v>
+        <v>157.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>29.0</v>
+        <v>92.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>31.0</v>
+        <v>186.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>29.0</v>
+        <v>306.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -3047,34 +3047,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>26.0</v>
+        <v>199.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>23.0</v>
+        <v>292.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>28.0</v>
+        <v>65.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>31.0</v>
+        <v>163.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>140.0</v>
+        <v>269.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>73.0</v>
+        <v>452.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>108.0</v>
+        <v>67.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>35.0</v>
+        <v>282.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>34.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -3082,34 +3082,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>85.0</v>
+        <v>286.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>43.0</v>
+        <v>244.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>53.0</v>
+        <v>21.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>121.0</v>
+        <v>58.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>133.0</v>
+        <v>259.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>68.0</v>
+        <v>148.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>66.0</v>
+        <v>169.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>47.0</v>
+        <v>55.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>220.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -3117,34 +3117,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>40.0</v>
+        <v>404.0</v>
       </c>
       <c r="C15" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>460.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>516.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
         <v>146.0</v>
       </c>
-      <c r="D15" t="n" s="0">
-        <v>84.0</v>
-      </c>
-      <c r="E15" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>51.0</v>
-      </c>
-      <c r="H15" t="n" s="0">
-        <v>24.0</v>
-      </c>
       <c r="I15" t="n" s="0">
-        <v>32.0</v>
+        <v>89.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>34.0</v>
+        <v>235.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>253.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -3152,34 +3152,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>33.0</v>
+        <v>170.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>282.0</v>
+        <v>105.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>55.0</v>
+        <v>264.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>31.0</v>
+        <v>63.0</v>
       </c>
       <c r="F16" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>236.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
         <v>38.0</v>
       </c>
-      <c r="G16" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="H16" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="I16" t="n" s="0">
-        <v>105.0</v>
-      </c>
-      <c r="J16" t="n" s="0">
-        <v>28.0</v>
-      </c>
       <c r="K16" t="n" s="0">
-        <v>91.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -3187,34 +3187,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>26.0</v>
+        <v>146.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>187.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>23.0</v>
+        <v>219.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>31.0</v>
+        <v>244.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>172.0</v>
+        <v>235.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>90.0</v>
+        <v>249.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>26.0</v>
+        <v>166.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>33.0</v>
+        <v>481.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>49.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -3222,34 +3222,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>32.0</v>
+        <v>197.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>97.0</v>
+        <v>126.0</v>
       </c>
       <c r="D18" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
         <v>57.0</v>
       </c>
-      <c r="E18" t="n" s="0">
-        <v>34.0</v>
-      </c>
       <c r="F18" t="n" s="0">
-        <v>62.0</v>
+        <v>17.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>104.0</v>
+        <v>193.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>27.0</v>
+        <v>251.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>34.0</v>
+        <v>287.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -3257,34 +3257,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>61.0</v>
+        <v>417.0</v>
       </c>
       <c r="C19" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>201.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>201.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
         <v>217.0</v>
       </c>
-      <c r="D19" t="n" s="0">
-        <v>44.0</v>
-      </c>
-      <c r="E19" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="F19" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="G19" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="H19" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="I19" t="n" s="0">
-        <v>50.0</v>
-      </c>
       <c r="J19" t="n" s="0">
-        <v>86.0</v>
+        <v>821.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>43.0</v>
+        <v>409.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -3292,34 +3292,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>35.0</v>
+        <v>232.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>110.0</v>
+        <v>186.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>24.0</v>
+        <v>169.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>26.0</v>
+        <v>268.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>27.0</v>
+        <v>410.0</v>
       </c>
       <c r="G20" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
         <v>29.0</v>
-      </c>
-      <c r="H20" t="n" s="0">
-        <v>32.0</v>
-      </c>
-      <c r="I20" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="J20" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="K20" t="n" s="0">
-        <v>129.0</v>
       </c>
     </row>
   </sheetData>
@@ -3345,34 +3345,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>40.0</v>
+        <v>68.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>31.0</v>
+        <v>183.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>33.0</v>
+        <v>470.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>155.0</v>
+        <v>124.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>81.0</v>
+        <v>130.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>34.0</v>
+        <v>382.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>20.0</v>
+        <v>458.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>19.0</v>
+        <v>207.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>46.0</v>
+        <v>511.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>33.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -3380,34 +3380,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>34.0</v>
+        <v>627.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>32.0</v>
+        <v>492.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>86.0</v>
+        <v>225.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>67.0</v>
+        <v>402.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>254.0</v>
+        <v>310.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>70.0</v>
+        <v>126.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>28.0</v>
+        <v>57.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>24.0</v>
+        <v>5.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>64.0</v>
+        <v>214.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>60.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -3418,31 +3418,31 @@
         <v>41.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>67.0</v>
+        <v>728.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>259.0</v>
+        <v>209.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>90.0</v>
+        <v>151.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>512.0</v>
+        <v>62.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>22.0</v>
+        <v>415.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>30.0</v>
+        <v>316.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>39.0</v>
+        <v>243.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>58.0</v>
+        <v>418.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>25.0</v>
+        <v>439.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -3450,34 +3450,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>41.0</v>
+        <v>616.0</v>
       </c>
       <c r="C4" t="n" s="0">
+        <v>477.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>442.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>339.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
         <v>277.0</v>
       </c>
-      <c r="D4" t="n" s="0">
-        <v>136.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>387.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>424.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>44.0</v>
-      </c>
       <c r="J4" t="n" s="0">
-        <v>51.0</v>
+        <v>57.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>32.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -3485,34 +3485,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>111.0</v>
+        <v>31.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>166.0</v>
+        <v>11.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>249.0</v>
+        <v>298.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>134.0</v>
+        <v>52.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>324.0</v>
+        <v>318.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>76.0</v>
+        <v>240.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>58.0</v>
+        <v>311.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>167.0</v>
+        <v>278.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>59.0</v>
+        <v>477.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>103.0</v>
+        <v>284.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -3520,34 +3520,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>121.0</v>
+        <v>552.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>301.0</v>
+        <v>674.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>404.0</v>
+        <v>342.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>175.0</v>
+        <v>363.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>117.0</v>
+        <v>324.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>38.0</v>
+        <v>142.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>32.0</v>
+        <v>293.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>91.0</v>
+        <v>234.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>49.0</v>
+        <v>119.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>149.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -3555,34 +3555,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>57.0</v>
+        <v>166.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>358.0</v>
+        <v>686.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>444.0</v>
+        <v>122.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>330.0</v>
+        <v>175.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>64.0</v>
+        <v>267.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>29.0</v>
+        <v>364.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>48.0</v>
+        <v>438.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>51.0</v>
+        <v>318.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>83.0</v>
+        <v>456.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>134.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -3590,34 +3590,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>76.0</v>
+        <v>511.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>58.0</v>
+        <v>554.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>733.0</v>
+        <v>505.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>231.0</v>
+        <v>357.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>28.0</v>
+        <v>305.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>59.0</v>
+        <v>197.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>53.0</v>
+        <v>139.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>47.0</v>
+        <v>113.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>54.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -3625,34 +3625,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>68.0</v>
+        <v>124.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>123.0</v>
+        <v>734.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>232.0</v>
+        <v>244.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>216.0</v>
+        <v>143.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>41.0</v>
+        <v>202.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>31.0</v>
+        <v>204.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>55.0</v>
+        <v>534.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>82.0</v>
+        <v>375.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>31.0</v>
+        <v>564.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>36.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -3660,34 +3660,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>65.0</v>
+        <v>385.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>99.0</v>
+        <v>33.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>51.0</v>
+        <v>318.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>56.0</v>
+        <v>255.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>44.0</v>
+        <v>348.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>29.0</v>
+        <v>273.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>66.0</v>
+        <v>24.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>139.0</v>
+        <v>49.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>41.0</v>
+        <v>924.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>152.0</v>
+        <v>632.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -3695,34 +3695,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>40.0</v>
+        <v>105.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>37.0</v>
+        <v>663.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>51.0</v>
+        <v>324.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>38.0</v>
+        <v>356.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>31.0</v>
+        <v>84.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>30.0</v>
+        <v>238.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>30.0</v>
+        <v>366.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>143.0</v>
+        <v>467.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>39.0</v>
+        <v>716.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>44.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -3730,34 +3730,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>64.0</v>
+        <v>488.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>125.0</v>
+        <v>184.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>37.0</v>
+        <v>277.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>26.0</v>
+        <v>212.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>33.0</v>
+        <v>447.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>35.0</v>
+        <v>135.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>29.0</v>
+        <v>17.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>96.0</v>
+        <v>649.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>31.0</v>
+        <v>590.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>32.0</v>
+        <v>478.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -3765,34 +3765,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>57.0</v>
+        <v>603.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>74.0</v>
+        <v>635.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>38.0</v>
+        <v>271.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>49.0</v>
+        <v>258.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>62.0</v>
+        <v>10.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>77.0</v>
+        <v>447.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>43.0</v>
+        <v>554.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>28.0</v>
+        <v>401.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>34.0</v>
+        <v>602.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>30.0</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -3800,34 +3800,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>59.0</v>
+        <v>508.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>200.0</v>
+        <v>718.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>79.0</v>
+        <v>386.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>244.0</v>
+        <v>123.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>58.0</v>
+        <v>538.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>55.0</v>
+        <v>534.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>52.0</v>
+        <v>64.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>122.0</v>
+        <v>522.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>51.0</v>
+        <v>452.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>61.0</v>
+        <v>382.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -3835,34 +3835,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>67.0</v>
+        <v>658.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>63.0</v>
+        <v>769.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>44.0</v>
+        <v>209.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>85.0</v>
+        <v>168.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>37.0</v>
+        <v>448.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>35.0</v>
+        <v>351.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>65.0</v>
+        <v>411.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>71.0</v>
+        <v>503.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>54.0</v>
+        <v>610.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>61.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -3870,34 +3870,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>86.0</v>
+        <v>480.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>190.0</v>
+        <v>191.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>52.0</v>
+        <v>251.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>29.0</v>
+        <v>558.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>47.0</v>
+        <v>446.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>100.0</v>
+        <v>535.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>33.0</v>
+        <v>635.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>82.0</v>
+        <v>434.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -3905,34 +3905,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>30.0</v>
+        <v>416.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>86.0</v>
+        <v>67.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>106.0</v>
+        <v>319.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>89.0</v>
+        <v>237.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>36.0</v>
+        <v>524.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>34.0</v>
+        <v>483.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>59.0</v>
+        <v>611.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>36.0</v>
+        <v>17.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>34.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -3940,34 +3940,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>27.0</v>
+        <v>693.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>62.0</v>
+        <v>340.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>81.0</v>
+        <v>254.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>33.0</v>
+        <v>562.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>78.0</v>
+        <v>433.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>45.0</v>
+        <v>533.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>36.0</v>
+        <v>551.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>41.0</v>
+        <v>583.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>57.0</v>
+        <v>512.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -3975,34 +3975,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>39.0</v>
+        <v>688.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>30.0</v>
+        <v>125.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>67.0</v>
+        <v>320.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>87.0</v>
+        <v>399.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>33.0</v>
+        <v>454.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>45.0</v>
+        <v>16.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>45.0</v>
+        <v>539.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>50.0</v>
+        <v>440.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>50.0</v>
+        <v>696.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>45.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -4010,34 +4010,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>141.0</v>
+        <v>620.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>32.0</v>
+        <v>357.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>87.0</v>
+        <v>112.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>316.0</v>
+        <v>140.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>56.0</v>
+        <v>449.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>94.0</v>
+        <v>459.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>55.0</v>
+        <v>485.0</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>37.0</v>
+        <v>377.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>30.0</v>
+        <v>538.0</v>
       </c>
     </row>
   </sheetData>
@@ -4063,34 +4063,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>94.0</v>
+        <v>148.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>176.0</v>
+        <v>736.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>39.0</v>
+        <v>595.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>53.0</v>
+        <v>47.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>34.0</v>
+        <v>269.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>76.0</v>
+        <v>767.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>57.0</v>
+        <v>331.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>98.0</v>
+        <v>157.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>30.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -4098,34 +4098,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>75.0</v>
+        <v>673.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>86.0</v>
+        <v>29.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>289.0</v>
+        <v>171.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>34.0</v>
+        <v>689.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>37.0</v>
+        <v>486.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>34.0</v>
+        <v>910.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>32.0</v>
+        <v>391.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>40.0</v>
+        <v>608.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>31.0</v>
+        <v>593.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>60.0</v>
+        <v>602.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -4133,34 +4133,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>96.0</v>
+        <v>108.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>47.0</v>
+        <v>647.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>336.0</v>
+        <v>579.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>33.0</v>
+        <v>123.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>32.0</v>
+        <v>393.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>119.0</v>
+        <v>23.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>35.0</v>
+        <v>600.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>32.0</v>
+        <v>259.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>36.0</v>
+        <v>255.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>35.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4168,34 +4168,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>46.0</v>
+        <v>691.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>237.0</v>
+        <v>857.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>59.0</v>
+        <v>196.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>65.0</v>
+        <v>756.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>37.0</v>
+        <v>446.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>71.0</v>
+        <v>795.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>100.0</v>
+        <v>292.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>111.0</v>
+        <v>310.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>58.0</v>
+        <v>499.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>39.0</v>
+        <v>1084.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -4203,34 +4203,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>160.0</v>
+        <v>37.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>97.0</v>
+        <v>892.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>337.0</v>
+        <v>807.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>77.0</v>
+        <v>111.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>144.0</v>
+        <v>329.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>122.0</v>
+        <v>43.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>204.0</v>
+        <v>530.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>71.0</v>
+        <v>742.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>117.0</v>
+        <v>838.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>139.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4238,34 +4238,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>52.0</v>
+        <v>664.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>106.0</v>
+        <v>858.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>72.0</v>
+        <v>78.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>57.0</v>
+        <v>622.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>169.0</v>
+        <v>410.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>44.0</v>
+        <v>604.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>58.0</v>
+        <v>319.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>26.0</v>
+        <v>176.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>53.0</v>
+        <v>376.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>113.0</v>
+        <v>734.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4273,34 +4273,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>274.0</v>
+        <v>49.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>82.0</v>
+        <v>813.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>476.0</v>
+        <v>784.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>75.0</v>
+        <v>67.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>205.0</v>
+        <v>375.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>62.0</v>
+        <v>99.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>133.0</v>
+        <v>698.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>38.0</v>
+        <v>853.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>152.0</v>
+        <v>387.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>94.0</v>
+        <v>671.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -4308,34 +4308,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>153.0</v>
+        <v>688.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>85.0</v>
+        <v>879.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>62.0</v>
+        <v>161.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>108.0</v>
+        <v>839.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>47.0</v>
+        <v>373.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>33.0</v>
+        <v>588.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>47.0</v>
+        <v>164.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>38.0</v>
+        <v>57.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>63.0</v>
+        <v>493.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>73.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -4343,34 +4343,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>79.0</v>
+        <v>27.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>57.0</v>
+        <v>756.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>596.0</v>
+        <v>650.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>47.0</v>
+        <v>233.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>47.0</v>
+        <v>528.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>32.0</v>
+        <v>123.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>36.0</v>
+        <v>782.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>130.0</v>
+        <v>774.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>71.0</v>
+        <v>452.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>65.0</v>
+        <v>782.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -4378,34 +4378,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>68.0</v>
+        <v>718.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>35.0</v>
+        <v>666.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>152.0</v>
+        <v>301.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>48.0</v>
+        <v>610.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>34.0</v>
+        <v>392.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>46.0</v>
+        <v>655.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>34.0</v>
+        <v>50.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>98.0</v>
+        <v>189.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>43.0</v>
+        <v>328.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>30.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -4413,34 +4413,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>69.0</v>
+        <v>139.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>103.0</v>
+        <v>731.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>49.0</v>
+        <v>338.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>67.0</v>
+        <v>237.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>105.0</v>
+        <v>431.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>55.0</v>
+        <v>176.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>51.0</v>
+        <v>871.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>51.0</v>
+        <v>564.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>43.0</v>
+        <v>454.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>71.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -4448,34 +4448,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>37.0</v>
+        <v>551.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>49.0</v>
+        <v>752.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>169.0</v>
+        <v>945.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>70.0</v>
+        <v>487.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>46.0</v>
+        <v>630.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>31.0</v>
+        <v>607.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>103.0</v>
+        <v>233.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>31.0</v>
+        <v>173.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>31.0</v>
+        <v>327.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>84.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -4483,34 +4483,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>103.0</v>
+        <v>115.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>56.0</v>
+        <v>940.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>156.0</v>
+        <v>351.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>46.0</v>
+        <v>374.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>34.0</v>
+        <v>190.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>105.0</v>
+        <v>274.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>84.0</v>
+        <v>722.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>36.0</v>
+        <v>686.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>29.0</v>
+        <v>546.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>87.0</v>
+        <v>698.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -4518,34 +4518,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>178.0</v>
+        <v>868.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>69.0</v>
+        <v>12.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>79.0</v>
+        <v>534.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>71.0</v>
+        <v>475.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>210.0</v>
+        <v>581.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>61.0</v>
+        <v>596.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>66.0</v>
+        <v>204.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>77.0</v>
+        <v>118.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>86.0</v>
+        <v>439.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>67.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -4553,34 +4553,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>211.0</v>
+        <v>160.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>102.0</v>
+        <v>688.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>82.0</v>
+        <v>296.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>128.0</v>
+        <v>496.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>196.0</v>
+        <v>237.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>69.0</v>
+        <v>172.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>125.0</v>
+        <v>515.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>55.0</v>
+        <v>416.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>42.0</v>
+        <v>949.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -4588,34 +4588,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>47.0</v>
+        <v>821.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>127.0</v>
+        <v>50.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>187.0</v>
+        <v>502.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>173.0</v>
+        <v>350.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>41.0</v>
+        <v>480.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>75.0</v>
+        <v>739.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>45.0</v>
+        <v>584.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>38.0</v>
+        <v>144.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>56.0</v>
+        <v>307.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>31.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -4623,34 +4623,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>98.0</v>
+        <v>287.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>69.0</v>
+        <v>715.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>378.0</v>
+        <v>200.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>123.0</v>
+        <v>500.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>39.0</v>
+        <v>322.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>53.0</v>
+        <v>101.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>59.0</v>
+        <v>566.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>34.0</v>
+        <v>746.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>109.0</v>
+        <v>362.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>36.0</v>
+        <v>814.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -4658,34 +4658,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>119.0</v>
+        <v>853.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>50.0</v>
+        <v>157.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>430.0</v>
+        <v>431.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>39.0</v>
+        <v>332.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>29.0</v>
+        <v>670.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>29.0</v>
+        <v>681.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>77.0</v>
+        <v>591.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>32.0</v>
+        <v>217.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>62.0</v>
+        <v>514.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>108.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -4693,34 +4693,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>33.0</v>
+        <v>174.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>52.0</v>
+        <v>536.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>450.0</v>
+        <v>334.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>61.0</v>
+        <v>683.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>31.0</v>
+        <v>233.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>45.0</v>
+        <v>110.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>31.0</v>
+        <v>189.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>494.0</v>
+        <v>621.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>77.0</v>
+        <v>443.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>182.0</v>
+        <v>771.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -4728,34 +4728,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>56.0</v>
+        <v>790.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>44.0</v>
+        <v>332.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>628.0</v>
+        <v>519.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>181.0</v>
+        <v>226.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>45.0</v>
+        <v>516.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>35.0</v>
+        <v>560.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>29.0</v>
+        <v>564.0</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>142.0</v>
+        <v>80.0</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>56.0</v>
+        <v>383.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>61.0</v>
+        <v>243.0</v>
       </c>
     </row>
   </sheetData>
@@ -4781,34 +4781,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>43.0</v>
+        <v>19.0</v>
       </c>
       <c r="C1" t="n" s="0">
         <v>18.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>77.0</v>
+        <v>20.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>67.0</v>
+        <v>38.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>340.0</v>
+        <v>59.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>57.0</v>
+        <v>33.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>34.0</v>
+        <v>16.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>829.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -4816,34 +4816,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c r="C2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>68.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>47.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>59.0</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>40.0</v>
-      </c>
       <c r="K2" t="n" s="0">
-        <v>873.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -4851,34 +4851,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>129.0</v>
+        <v>19.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>52.0</v>
+        <v>15.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>303.0</v>
+        <v>7.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>37.0</v>
+        <v>7.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>104.0</v>
+        <v>14.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>987.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4886,34 +4886,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>75.0</v>
+        <v>11.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>54.0</v>
+        <v>14.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>91.0</v>
+        <v>19.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>64.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>93.0</v>
+        <v>7.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>92.0</v>
+        <v>17.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>70.0</v>
+        <v>6.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>62.0</v>
+        <v>24.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>117.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -4921,34 +4921,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>89.0</v>
+        <v>49.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>53.0</v>
+        <v>46.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>64.0</v>
+        <v>17.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>243.0</v>
+        <v>19.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>128.0</v>
+        <v>29.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>209.0</v>
+        <v>16.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>109.0</v>
+        <v>39.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>362.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4956,34 +4956,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>50.0</v>
+        <v>14.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>127.0</v>
+        <v>93.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>41.0</v>
+        <v>20.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>57.0</v>
+        <v>7.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>174.0</v>
+        <v>13.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>113.0</v>
+        <v>15.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>125.0</v>
+        <v>13.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>48.0</v>
+        <v>11.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>77.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4991,34 +4991,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>151.0</v>
+        <v>7.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>38.0</v>
+        <v>152.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>130.0</v>
+        <v>23.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>49.0</v>
+        <v>14.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>53.0</v>
+        <v>15.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>109.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>57.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -5026,34 +5026,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>39.0</v>
+        <v>119.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>44.0</v>
+        <v>15.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>55.0</v>
+        <v>19.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>48.0</v>
+        <v>8.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>89.0</v>
+        <v>14.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>369.0</v>
+        <v>10.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>93.0</v>
+        <v>32.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>106.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -5061,34 +5061,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>34.0</v>
+        <v>58.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>31.0</v>
+        <v>44.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>228.0</v>
+        <v>17.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>64.0</v>
+        <v>12.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>73.0</v>
+        <v>11.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>236.0</v>
+        <v>19.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>58.0</v>
+        <v>29.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>205.0</v>
+        <v>8.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>55.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5096,34 +5096,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>47.0</v>
+        <v>10.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>156.0</v>
+        <v>13.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>199.0</v>
+        <v>8.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>126.0</v>
+        <v>15.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>165.0</v>
+        <v>9.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>54.0</v>
+        <v>29.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>117.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -5131,34 +5131,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>39.0</v>
+        <v>14.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>127.0</v>
+        <v>11.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>72.0</v>
+        <v>31.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>35.0</v>
+        <v>9.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>111.0</v>
+        <v>13.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>97.0</v>
+        <v>9.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>109.0</v>
+        <v>6.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>139.0</v>
+        <v>12.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>146.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -5166,34 +5166,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>422.0</v>
+        <v>11.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>57.0</v>
+        <v>11.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>93.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>55.0</v>
+        <v>6.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>39.0</v>
+        <v>11.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>70.0</v>
+        <v>8.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>142.0</v>
+        <v>7.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>115.0</v>
+        <v>10.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>63.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -5201,34 +5201,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>252.0</v>
+        <v>22.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>73.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>134.0</v>
+        <v>23.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>64.0</v>
+        <v>14.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>31.0</v>
+        <v>10.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>63.0</v>
+        <v>40.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>377.0</v>
+        <v>12.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>145.0</v>
+        <v>29.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>237.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -5236,34 +5236,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>34.0</v>
+        <v>11.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>1081.0</v>
+        <v>41.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>140.0</v>
+        <v>10.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>72.0</v>
+        <v>8.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>69.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>99.0</v>
+        <v>29.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>132.0</v>
+        <v>33.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>354.0</v>
+        <v>11.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>85.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -5271,34 +5271,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>76.0</v>
+        <v>7.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>389.0</v>
+        <v>37.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>58.0</v>
+        <v>9.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>178.0</v>
+        <v>15.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>76.0</v>
+        <v>22.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>335.0</v>
+        <v>15.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>371.0</v>
+        <v>32.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>228.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -5306,34 +5306,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>302.0</v>
+        <v>16.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>332.0</v>
+        <v>12.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>185.0</v>
+        <v>10.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>28.0</v>
+        <v>11.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>128.0</v>
+        <v>7.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>344.0</v>
+        <v>15.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>88.0</v>
+        <v>9.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>56.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -5341,34 +5341,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>116.0</v>
+        <v>43.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>98.0</v>
+        <v>10.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>87.0</v>
+        <v>7.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>33.0</v>
+        <v>9.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>127.0</v>
+        <v>6.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>139.0</v>
+        <v>11.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>542.0</v>
+        <v>13.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>349.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -5376,34 +5376,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>30.0</v>
+        <v>14.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>215.0</v>
+        <v>9.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>84.0</v>
+        <v>8.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>31.0</v>
+        <v>13.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>273.0</v>
+        <v>15.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>52.0</v>
+        <v>7.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>740.0</v>
+        <v>14.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>102.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -5411,34 +5411,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>45.0</v>
+        <v>8.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>37.0</v>
+        <v>12.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>34.0</v>
+        <v>7.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>100.0</v>
+        <v>9.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>73.0</v>
+        <v>9.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>354.0</v>
+        <v>16.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>532.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -5446,34 +5446,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>44.0</v>
+        <v>14.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>43.0</v>
+        <v>7.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>37.0</v>
+        <v>9.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>117.0</v>
+        <v>13.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>56.0</v>
+        <v>7.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>35.0</v>
+        <v>8.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>176.0</v>
+        <v>15.0</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>514.0</v>
+        <v>19.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>728.0</v>
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -5499,34 +5499,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="C1" t="n" s="0">
+      <c r="E1" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="D1" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>48.0</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>46.0</v>
-      </c>
       <c r="I1" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -5534,31 +5534,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>32.0</v>
+        <v>18.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>15.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="G2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
         <v>15.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>29.0</v>
       </c>
       <c r="K2" t="n" s="0">
         <v>16.0</v>
@@ -5569,34 +5569,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>42.0</v>
+        <v>13.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>32.0</v>
+        <v>18.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="G3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="H3" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>12.0</v>
-      </c>
       <c r="J3" t="n" s="0">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -5604,34 +5604,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
         <v>15.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>75.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>13.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -5639,34 +5639,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
       <c r="D5" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
         <v>25.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>63.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>70.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>30.0</v>
       </c>
       <c r="J5" t="n" s="0">
         <v>33.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -5674,34 +5674,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>80.0</v>
+        <v>22.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>13.0</v>
+        <v>38.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>73.0</v>
+        <v>15.0</v>
       </c>
       <c r="I6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
         <v>17.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="K6" t="n" s="0">
-        <v>10.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -5709,34 +5709,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>37.0</v>
+        <v>19.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>49.0</v>
+        <v>9.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>16.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -5744,34 +5744,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="C8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="D8" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>48.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>21.0</v>
-      </c>
       <c r="I8" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -5779,34 +5779,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="C9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="D9" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="G9" t="n" s="0">
-        <v>37.0</v>
+        <v>13.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5814,34 +5814,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="C10" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>42.0</v>
-      </c>
       <c r="G10" t="n" s="0">
-        <v>13.0</v>
+        <v>43.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="I10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
         <v>19.0</v>
-      </c>
-      <c r="J10" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="K10" t="n" s="0">
-        <v>15.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -5849,34 +5849,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>49.0</v>
+        <v>18.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>35.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -5884,34 +5884,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="C12" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>48.0</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="H12" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="I12" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="J12" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="K12" t="n" s="0">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -5919,34 +5919,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>28.0</v>
+        <v>40.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>35.0</v>
+        <v>15.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -5954,34 +5954,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>36.0</v>
+        <v>11.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>39.0</v>
+        <v>18.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>47.0</v>
+        <v>27.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -5989,34 +5989,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>51.0</v>
+        <v>11.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="D15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
         <v>22.0</v>
       </c>
-      <c r="E15" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="H15" t="n" s="0">
-        <v>37.0</v>
-      </c>
       <c r="I15" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>199.0</v>
+        <v>17.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -6024,34 +6024,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>34.0</v>
+        <v>7.0</v>
       </c>
       <c r="E16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="F16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="G16" t="n" s="0">
+      <c r="H16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="H16" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="I16" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="J16" t="n" s="0">
-        <v>151.0</v>
-      </c>
       <c r="K16" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -6059,34 +6059,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>45.0</v>
+        <v>18.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>86.0</v>
+        <v>21.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -6094,34 +6094,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>13.0</v>
+        <v>68.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>16.0</v>
+        <v>42.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>59.0</v>
+        <v>19.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>62.0</v>
+        <v>17.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -6129,34 +6129,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>17.0</v>
+        <v>58.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>135.0</v>
+        <v>33.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>88.0</v>
+        <v>13.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -6164,34 +6164,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C20" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="D20" t="n" s="0">
-        <v>65.0</v>
-      </c>
       <c r="E20" t="n" s="0">
-        <v>41.0</v>
+        <v>16.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="G20" t="n" s="0">
         <v>14.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>32.0</v>
+        <v>11.0</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>103.0</v>
+        <v>15.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>43.0</v>
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -6217,34 +6217,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>17.0</v>
+        <v>50.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>13.0</v>
+        <v>47.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>90.0</v>
+        <v>22.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>59.0</v>
+        <v>20.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>992.0</v>
+        <v>10.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>39.0</v>
+        <v>51.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -6252,34 +6252,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>40.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>75.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>67.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>18.0</v>
-      </c>
       <c r="K2" t="n" s="0">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -6287,34 +6287,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>75.0</v>
+        <v>26.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>27.0</v>
+        <v>104.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>78.0</v>
+        <v>10.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>36.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6322,34 +6322,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>14.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -6357,34 +6357,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>73.0</v>
+        <v>39.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>51.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>51.0</v>
+        <v>34.0</v>
       </c>
       <c r="H5" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
         <v>33.0</v>
       </c>
-      <c r="I5" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="J5" t="n" s="0">
-        <v>35.0</v>
-      </c>
       <c r="K5" t="n" s="0">
-        <v>34.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -6392,34 +6392,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="C6" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>53.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>23.0</v>
-      </c>
       <c r="K6" t="n" s="0">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -6427,34 +6427,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>42.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>13.0</v>
+        <v>57.0</v>
       </c>
       <c r="F7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="G7" t="n" s="0">
+      <c r="I7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
         <v>15.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="K7" t="n" s="0">
-        <v>31.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -6462,34 +6462,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>42.0</v>
+        <v>70.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>41.0</v>
+        <v>7.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>44.0</v>
+        <v>10.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -6497,34 +6497,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="E9" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="F9" t="n" s="0">
+      <c r="G9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="G9" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>26.0</v>
-      </c>
       <c r="I9" t="n" s="0">
-        <v>28.0</v>
+        <v>6.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -6532,34 +6532,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>20.0</v>
+        <v>47.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>57.0</v>
+        <v>10.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -6567,34 +6567,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="D11" t="n" s="0">
         <v>13.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>35.0</v>
+        <v>13.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>43.0</v>
+        <v>12.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -6602,34 +6602,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>18.0</v>
+        <v>59.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>44.0</v>
+        <v>8.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>32.0</v>
+        <v>13.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -6637,34 +6637,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="D13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="E13" t="n" s="0">
-        <v>44.0</v>
-      </c>
-      <c r="F13" t="n" s="0">
+      <c r="G13" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="G13" t="n" s="0">
-        <v>24.0</v>
-      </c>
-      <c r="H13" t="n" s="0">
-        <v>20.0</v>
-      </c>
       <c r="I13" t="n" s="0">
-        <v>49.0</v>
+        <v>8.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>62.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -6672,34 +6672,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>27.0</v>
+        <v>47.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>50.0</v>
+        <v>11.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>31.0</v>
+        <v>9.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>42.0</v>
+        <v>20.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>33.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -6707,34 +6707,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -6742,34 +6742,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="D16" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="E16" t="n" s="0">
+      <c r="F16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="F16" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>33.0</v>
-      </c>
       <c r="H16" t="n" s="0">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>29.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -6777,34 +6777,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>58.0</v>
+        <v>12.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>58.0</v>
+        <v>6.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>19.0</v>
+        <v>32.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -6812,34 +6812,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="F18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
         <v>21.0</v>
       </c>
-      <c r="G18" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="H18" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="I18" t="n" s="0">
-        <v>49.0</v>
-      </c>
-      <c r="J18" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="K18" t="n" s="0">
-        <v>33.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -6847,34 +6847,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>38.0</v>
+        <v>15.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -6882,34 +6882,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>58.0</v>
+        <v>9.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>42.0</v>
+        <v>13.0</v>
       </c>
       <c r="F20" t="n" s="0">
         <v>19.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>51.0</v>
+        <v>9.0</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -6935,34 +6935,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="C1" t="n" s="0">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="D1" t="n" s="0">
-        <v>40.0</v>
+        <v>11.0</v>
       </c>
       <c r="E1" t="n" s="0">
-        <v>16.0</v>
+        <v>36.0</v>
       </c>
       <c r="F1" t="n" s="0">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="G1" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="H1" t="n" s="0">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="I1" t="n" s="0">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="J1" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
       <c r="K1" t="n" s="0">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -6970,34 +6970,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>62.0</v>
+        <v>16.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>29.0</v>
+        <v>11.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>14.0</v>
+        <v>36.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>51.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -7005,34 +7005,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>18.0</v>
+        <v>49.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>20.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>13.0</v>
+        <v>28.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -7040,34 +7040,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>19.0</v>
+        <v>44.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>41.0</v>
+        <v>13.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>33.0</v>
+        <v>63.0</v>
       </c>
       <c r="J4" t="n" s="0">
         <v>15.0</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -7075,34 +7075,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>39.0</v>
+        <v>14.0</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -7110,34 +7110,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="C6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
         <v>20.0</v>
       </c>
-      <c r="D6" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>14.0</v>
-      </c>
       <c r="G6" t="n" s="0">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>18.0</v>
+        <v>61.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>69.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -7145,34 +7145,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="E7" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="F7" t="n" s="0">
-        <v>15.0</v>
-      </c>
       <c r="G7" t="n" s="0">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>42.0</v>
+        <v>11.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>37.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -7180,34 +7180,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>58.0</v>
+        <v>34.0</v>
       </c>
       <c r="D8" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="E8" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="G8" t="n" s="0">
-        <v>17.0</v>
+        <v>77.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>29.0</v>
+        <v>6.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>31.0</v>
+        <v>7.0</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -7215,34 +7215,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="C9" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>31.0</v>
-      </c>
       <c r="F9" t="n" s="0">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>17.0</v>
+        <v>59.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>36.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -7250,34 +7250,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="C10" t="n" s="0">
-        <v>13.0</v>
-      </c>
       <c r="D10" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>12.0</v>
+        <v>34.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>94.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -7285,34 +7285,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>61.0</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>56.0</v>
+        <v>19.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>28.0</v>
+        <v>43.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>50.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -7320,34 +7320,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>54.0</v>
+        <v>23.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>40.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -7355,34 +7355,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>114.0</v>
+        <v>16.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>48.0</v>
+        <v>8.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="K13" t="n" s="0">
-        <v>40.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -7390,34 +7390,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>80.0</v>
+        <v>11.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>34.0</v>
+        <v>22.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>91.0</v>
+        <v>13.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>44.0</v>
+        <v>15.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>40.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
@@ -7425,34 +7425,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>61.0</v>
+        <v>24.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>76.0</v>
+        <v>15.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>39.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -7460,34 +7460,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>90.0</v>
+        <v>5.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>40.0</v>
+        <v>12.0</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>32.0</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="G16" t="n" s="0">
         <v>17.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>31.0</v>
+        <v>16.0</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -7495,34 +7495,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>102.0</v>
+        <v>9.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>47.0</v>
+        <v>22.0</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>66.0</v>
+        <v>11.0</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>26.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -7530,34 +7530,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>38.0</v>
+        <v>8.0</v>
       </c>
       <c r="E18" t="n" s="0">
         <v>21.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>61.0</v>
+        <v>20.0</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>65.0</v>
+        <v>85.0</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -7565,34 +7565,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>45.0</v>
+        <v>6.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>100.0</v>
+        <v>13.0</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>143.0</v>
+        <v>32.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>49.0</v>
+        <v>59.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -7600,34 +7600,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>140.0</v>
+        <v>8.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>114.0</v>
+        <v>18.0</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>77.0</v>
+        <v>58.0</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>60.0</v>
+        <v>13.0</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/MultiUserIncreaseOc.xlsx
+++ b/documentation/MultiUserIncreaseOc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B36BC-CDE2-9C45-9750-3A795E259642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF21582-61DD-2443-B411-9E75FF31A366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,189 +474,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>35</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>21</v>
+      </c>
+      <c r="F1">
+        <v>14</v>
+      </c>
+      <c r="G1">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>12</v>
+      </c>
+      <c r="I1">
+        <v>48</v>
+      </c>
+      <c r="J1">
+        <v>11</v>
+      </c>
+      <c r="K1">
+        <v>12</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>11.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(B3:K3)</f>
+        <v>15.6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>39</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(B4:K4)</f>
+        <v>23.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(B5:K5)</f>
+        <v>23.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(B6:K6)</f>
+        <v>16.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(B7:K7)</f>
+        <v>12.1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(B8:K8)</f>
+        <v>12.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE(B9:K9)</f>
+        <v>10.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(B10:K10)</f>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(B11:K11)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>58</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B12:K12)</f>
+        <v>15.7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>16.7</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M24" t="s">
         <v>20</v>
       </c>
-      <c r="N24" t="e">
+      <c r="N24">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>14.62</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +1269,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,189 +1281,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>2374</v>
+      </c>
+      <c r="C1">
+        <v>882</v>
+      </c>
+      <c r="D1">
+        <v>1840</v>
+      </c>
+      <c r="E1">
+        <v>2672</v>
+      </c>
+      <c r="F1">
+        <v>739</v>
+      </c>
+      <c r="G1">
+        <v>1199</v>
+      </c>
+      <c r="H1">
+        <v>2266</v>
+      </c>
+      <c r="I1">
+        <v>438</v>
+      </c>
+      <c r="J1">
+        <v>1142</v>
+      </c>
+      <c r="K1">
+        <v>2682</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>1623.4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <v>2026</v>
+      </c>
+      <c r="D2">
+        <v>748</v>
+      </c>
+      <c r="E2">
+        <v>265</v>
+      </c>
+      <c r="F2">
+        <v>2067</v>
+      </c>
+      <c r="G2">
+        <v>1756</v>
+      </c>
+      <c r="H2">
+        <v>374</v>
+      </c>
+      <c r="I2">
+        <v>2475</v>
+      </c>
+      <c r="J2">
+        <v>1398</v>
+      </c>
+      <c r="K2">
+        <v>235</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>1149.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>2674</v>
+      </c>
+      <c r="C3">
+        <v>894</v>
+      </c>
+      <c r="D3">
+        <v>1942</v>
+      </c>
+      <c r="E3">
+        <v>2442</v>
+      </c>
+      <c r="F3">
+        <v>695</v>
+      </c>
+      <c r="G3">
+        <v>1214</v>
+      </c>
+      <c r="H3">
+        <v>2612</v>
+      </c>
+      <c r="I3">
+        <v>370</v>
+      </c>
+      <c r="J3">
+        <v>1246</v>
+      </c>
+      <c r="K3">
+        <v>3045</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1713.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>1749</v>
+      </c>
+      <c r="D4">
+        <v>659</v>
+      </c>
+      <c r="E4">
+        <v>347</v>
+      </c>
+      <c r="F4">
+        <v>2265</v>
+      </c>
+      <c r="G4">
+        <v>1535</v>
+      </c>
+      <c r="H4">
+        <v>415</v>
+      </c>
+      <c r="I4">
+        <v>2361</v>
+      </c>
+      <c r="J4">
+        <v>1293</v>
+      </c>
+      <c r="K4">
+        <v>438</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1114.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>2805</v>
+      </c>
+      <c r="C5">
+        <v>955</v>
+      </c>
+      <c r="D5">
+        <v>1954</v>
+      </c>
+      <c r="E5">
+        <v>2586</v>
+      </c>
+      <c r="F5">
+        <v>706</v>
+      </c>
+      <c r="G5">
+        <v>1233</v>
+      </c>
+      <c r="H5">
+        <v>2556</v>
+      </c>
+      <c r="I5">
+        <v>420</v>
+      </c>
+      <c r="J5">
+        <v>1472</v>
+      </c>
+      <c r="K5">
+        <v>2367</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1705.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>1622</v>
+      </c>
+      <c r="D6">
+        <v>733</v>
+      </c>
+      <c r="E6">
+        <v>336</v>
+      </c>
+      <c r="F6">
+        <v>2310</v>
+      </c>
+      <c r="G6">
+        <v>1378</v>
+      </c>
+      <c r="H6">
+        <v>553</v>
+      </c>
+      <c r="I6">
+        <v>2371</v>
+      </c>
+      <c r="J6">
+        <v>1212</v>
+      </c>
+      <c r="K6">
+        <v>212</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1077.9000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>2565</v>
+      </c>
+      <c r="C7">
+        <v>1101</v>
+      </c>
+      <c r="D7">
+        <v>2197</v>
+      </c>
+      <c r="E7">
+        <v>2521</v>
+      </c>
+      <c r="F7">
+        <v>403</v>
+      </c>
+      <c r="G7">
+        <v>1243</v>
+      </c>
+      <c r="H7">
+        <v>2452</v>
+      </c>
+      <c r="I7">
+        <v>380</v>
+      </c>
+      <c r="J7">
+        <v>1658</v>
+      </c>
+      <c r="K7">
+        <v>2675</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1719.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>1627</v>
+      </c>
+      <c r="D8">
+        <v>727</v>
+      </c>
+      <c r="E8">
+        <v>264</v>
+      </c>
+      <c r="F8">
+        <v>2189</v>
+      </c>
+      <c r="G8">
+        <v>1446</v>
+      </c>
+      <c r="H8">
+        <v>246</v>
+      </c>
+      <c r="I8">
+        <v>2578</v>
+      </c>
+      <c r="J8">
+        <v>910</v>
+      </c>
+      <c r="K8">
+        <v>230</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1024.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>2884</v>
+      </c>
+      <c r="C9">
+        <v>978</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+      <c r="E9">
+        <v>2728</v>
+      </c>
+      <c r="F9">
+        <v>512</v>
+      </c>
+      <c r="G9">
+        <v>1473</v>
+      </c>
+      <c r="H9">
+        <v>2595</v>
+      </c>
+      <c r="I9">
+        <v>416</v>
+      </c>
+      <c r="J9">
+        <v>1789</v>
+      </c>
+      <c r="K9">
+        <v>2486</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1788.2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>2806</v>
+      </c>
+      <c r="C10">
+        <v>1517</v>
+      </c>
+      <c r="D10">
+        <v>940</v>
+      </c>
+      <c r="E10">
+        <v>169</v>
+      </c>
+      <c r="F10">
+        <v>2269</v>
+      </c>
+      <c r="G10">
+        <v>1343</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>2576</v>
+      </c>
+      <c r="J10">
+        <v>954</v>
+      </c>
+      <c r="K10">
+        <v>211</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1287.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>2715</v>
+      </c>
+      <c r="C11">
+        <v>1009</v>
+      </c>
+      <c r="D11">
+        <v>1897</v>
+      </c>
+      <c r="E11">
+        <v>2441</v>
+      </c>
+      <c r="F11">
+        <v>610</v>
+      </c>
+      <c r="G11">
+        <v>1144</v>
+      </c>
+      <c r="H11">
+        <v>2658</v>
+      </c>
+      <c r="I11">
+        <v>308</v>
+      </c>
+      <c r="J11">
+        <v>1642</v>
+      </c>
+      <c r="K11">
+        <v>2483</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1690.7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>1698</v>
+      </c>
+      <c r="D12">
+        <v>822</v>
+      </c>
+      <c r="E12">
+        <v>169</v>
+      </c>
+      <c r="F12">
+        <v>2309</v>
+      </c>
+      <c r="G12">
+        <v>1753</v>
+      </c>
+      <c r="H12">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>2576</v>
+      </c>
+      <c r="J12">
+        <v>1040</v>
+      </c>
+      <c r="K12">
+        <v>185</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1065.4000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>2756</v>
+      </c>
+      <c r="C13">
+        <v>765</v>
+      </c>
+      <c r="D13">
+        <v>1852</v>
+      </c>
+      <c r="E13">
+        <v>2745</v>
+      </c>
+      <c r="F13">
+        <v>515</v>
+      </c>
+      <c r="G13">
+        <v>1152</v>
+      </c>
+      <c r="H13">
+        <v>2547</v>
+      </c>
+      <c r="I13">
+        <v>282</v>
+      </c>
+      <c r="J13">
+        <v>1636</v>
+      </c>
+      <c r="K13">
+        <v>2618</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1686.8</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>136</v>
+      </c>
+      <c r="C14">
+        <v>1832</v>
+      </c>
+      <c r="D14">
+        <v>577</v>
+      </c>
+      <c r="E14">
+        <v>161</v>
+      </c>
+      <c r="F14">
+        <v>2168</v>
+      </c>
+      <c r="G14">
+        <v>1643</v>
+      </c>
+      <c r="H14">
+        <v>125</v>
+      </c>
+      <c r="I14">
+        <v>2581</v>
+      </c>
+      <c r="J14">
+        <v>1295</v>
+      </c>
+      <c r="K14">
+        <v>144</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1066.2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>2794</v>
+      </c>
+      <c r="C15">
+        <v>813</v>
+      </c>
+      <c r="D15">
+        <v>1961</v>
+      </c>
+      <c r="E15">
+        <v>2411</v>
+      </c>
+      <c r="F15">
+        <v>349</v>
+      </c>
+      <c r="G15">
+        <v>1402</v>
+      </c>
+      <c r="H15">
+        <v>2543</v>
+      </c>
+      <c r="I15">
+        <v>356</v>
+      </c>
+      <c r="J15">
+        <v>1680</v>
+      </c>
+      <c r="K15">
+        <v>3186</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1749.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>1961</v>
+      </c>
+      <c r="D16">
+        <v>721</v>
+      </c>
+      <c r="E16">
+        <v>175</v>
+      </c>
+      <c r="F16">
+        <v>2373</v>
+      </c>
+      <c r="G16">
+        <v>1277</v>
+      </c>
+      <c r="H16">
+        <v>149</v>
+      </c>
+      <c r="I16">
+        <v>2474</v>
+      </c>
+      <c r="J16">
+        <v>1145</v>
+      </c>
+      <c r="K16">
+        <v>154</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1049.3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>2637</v>
+      </c>
+      <c r="C17">
+        <v>964</v>
+      </c>
+      <c r="D17">
+        <v>1972</v>
+      </c>
+      <c r="E17">
+        <v>2491</v>
+      </c>
+      <c r="F17">
+        <v>344</v>
+      </c>
+      <c r="G17">
+        <v>1553</v>
+      </c>
+      <c r="H17">
+        <v>3143</v>
+      </c>
+      <c r="I17">
+        <v>343</v>
+      </c>
+      <c r="J17">
+        <v>1662</v>
+      </c>
+      <c r="K17">
+        <v>2604</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1771.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>2027</v>
+      </c>
+      <c r="D18">
+        <v>830</v>
+      </c>
+      <c r="E18">
+        <v>294</v>
+      </c>
+      <c r="F18">
+        <v>2583</v>
+      </c>
+      <c r="G18">
+        <v>1650</v>
+      </c>
+      <c r="H18">
+        <v>293</v>
+      </c>
+      <c r="I18">
+        <v>2295</v>
+      </c>
+      <c r="J18">
+        <v>1097</v>
+      </c>
+      <c r="K18">
+        <v>95</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1127.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>2631</v>
+      </c>
+      <c r="C19">
+        <v>929</v>
+      </c>
+      <c r="D19">
+        <v>1970</v>
+      </c>
+      <c r="E19">
+        <v>2701</v>
+      </c>
+      <c r="F19">
+        <v>347</v>
+      </c>
+      <c r="G19">
+        <v>1570</v>
+      </c>
+      <c r="H19">
+        <v>2680</v>
+      </c>
+      <c r="I19">
+        <v>302</v>
+      </c>
+      <c r="J19">
+        <v>1494</v>
+      </c>
+      <c r="K19">
+        <v>2687</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1731.1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <v>1373</v>
+      </c>
+      <c r="D20">
+        <v>800</v>
+      </c>
+      <c r="E20">
+        <v>147</v>
+      </c>
+      <c r="F20">
+        <v>2226</v>
+      </c>
+      <c r="G20">
+        <v>942</v>
+      </c>
+      <c r="H20">
+        <v>263</v>
+      </c>
+      <c r="I20">
+        <v>2438</v>
+      </c>
+      <c r="J20">
+        <v>973</v>
+      </c>
+      <c r="K20">
+        <v>123</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>938.8</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="M24" t="e">
+      <c r="M24">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>1404.0099999999998</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +2076,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,189 +2088,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>9</v>
+      </c>
+      <c r="C1">
+        <v>57</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>49</v>
+      </c>
+      <c r="F1">
+        <v>11</v>
+      </c>
+      <c r="G1">
+        <v>64</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>25</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>45</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>47</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>20.7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>44</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B3:K3)</f>
+        <v>21.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>20.8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>58</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>35.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>59</v>
+      </c>
+      <c r="I6">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>28.2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>78</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>23</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>78</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>168</v>
+      </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>78</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>126</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>30.1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>61</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>25.8</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>72</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>21.1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>81</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>20.7</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M24" t="s">
         <v>20</v>
       </c>
-      <c r="N24" t="e">
+      <c r="N24">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>24.97</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +2883,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,189 +2895,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>29</v>
+      </c>
+      <c r="C1">
+        <v>33</v>
+      </c>
+      <c r="D1">
+        <v>61</v>
+      </c>
+      <c r="E1">
+        <v>92</v>
+      </c>
+      <c r="F1">
+        <v>87</v>
+      </c>
+      <c r="G1">
+        <v>33</v>
+      </c>
+      <c r="H1">
+        <v>17</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>41</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>127</v>
+      </c>
+      <c r="F2">
+        <v>59</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>68</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>109</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>140</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>47.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>143</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>98</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>110</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>60.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>88</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>34</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>162</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>159</v>
+      </c>
+      <c r="I6">
+        <v>123</v>
+      </c>
+      <c r="J6">
+        <v>75</v>
+      </c>
+      <c r="K6">
+        <v>143</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>89.1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>51</v>
+      </c>
+      <c r="H7">
+        <v>236</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>84</v>
+      </c>
+      <c r="K7">
+        <v>49</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>78.099999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>151</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>57</v>
+      </c>
+      <c r="H8">
+        <v>220</v>
+      </c>
+      <c r="I8">
+        <v>146</v>
+      </c>
+      <c r="J8">
+        <v>87</v>
+      </c>
+      <c r="K8">
+        <v>52</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>90.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>165</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>76</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>48.4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>133</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>163</v>
+      </c>
+      <c r="I10">
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <v>241</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>60.7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>121</v>
+      </c>
+      <c r="H12">
+        <v>141</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>45.3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>31.3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>83</v>
+      </c>
+      <c r="G14">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>87</v>
+      </c>
+      <c r="H15">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>110</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>34</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>49.2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <v>131</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>59</v>
+      </c>
+      <c r="I16">
+        <v>141</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>32</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>56.9</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>122</v>
+      </c>
+      <c r="H17">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>34</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>127</v>
+      </c>
+      <c r="F18">
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>87</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <v>58</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>57.7</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>77</v>
+      </c>
+      <c r="C19">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>82</v>
+      </c>
+      <c r="F19">
+        <v>108</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>131</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>49</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>55.4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>145</v>
+      </c>
+      <c r="E20">
+        <v>87</v>
+      </c>
+      <c r="F20">
+        <v>129</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>59</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M26" t="s">
         <v>20</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N26">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>56.305000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +3690,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,189 +3702,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>53</v>
+      </c>
+      <c r="C1">
+        <v>194</v>
+      </c>
+      <c r="D1">
+        <v>28</v>
+      </c>
+      <c r="E1">
+        <v>302</v>
+      </c>
+      <c r="F1">
+        <v>311</v>
+      </c>
+      <c r="G1">
+        <v>29</v>
+      </c>
+      <c r="H1">
+        <v>274</v>
+      </c>
+      <c r="I1">
+        <v>157</v>
+      </c>
+      <c r="J1">
+        <v>119</v>
+      </c>
+      <c r="K1">
+        <v>170</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>163.69999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>272</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>143</v>
+      </c>
+      <c r="E2">
+        <v>143</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>296</v>
+      </c>
+      <c r="H2">
+        <v>327</v>
+      </c>
+      <c r="I2">
+        <v>63</v>
+      </c>
+      <c r="J2">
+        <v>245</v>
+      </c>
+      <c r="K2">
+        <v>139</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>170.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>158</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <v>187</v>
+      </c>
+      <c r="G3">
+        <v>156</v>
+      </c>
+      <c r="H3">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>274</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B3:K3)</f>
+        <v>129.9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>326</v>
+      </c>
+      <c r="E4">
+        <v>240</v>
+      </c>
+      <c r="F4">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>222</v>
+      </c>
+      <c r="H4">
+        <v>242</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>102</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>134</v>
+      </c>
+      <c r="D5">
+        <v>208</v>
+      </c>
+      <c r="E5">
+        <v>211</v>
+      </c>
+      <c r="F5">
+        <v>238</v>
+      </c>
+      <c r="G5">
+        <v>126</v>
+      </c>
+      <c r="H5">
+        <v>159</v>
+      </c>
+      <c r="I5">
+        <v>58</v>
+      </c>
+      <c r="J5">
+        <v>181</v>
+      </c>
+      <c r="K5">
+        <v>355</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>180.2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>211</v>
+      </c>
+      <c r="F6">
+        <v>213</v>
+      </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
+      <c r="H6">
+        <v>145</v>
+      </c>
+      <c r="I6">
+        <v>202</v>
+      </c>
+      <c r="J6">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>78</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>119.9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>509</v>
+      </c>
+      <c r="C7">
+        <v>459</v>
+      </c>
+      <c r="D7">
+        <v>182</v>
+      </c>
+      <c r="E7">
+        <v>306</v>
+      </c>
+      <c r="F7">
+        <v>175</v>
+      </c>
+      <c r="G7">
+        <v>155</v>
+      </c>
+      <c r="H7">
+        <v>148</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+      <c r="J7">
+        <v>326</v>
+      </c>
+      <c r="K7">
+        <v>184</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>251.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>389</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>272</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>151</v>
+      </c>
+      <c r="J8">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>121.6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>297</v>
+      </c>
+      <c r="C9">
+        <v>276</v>
+      </c>
+      <c r="D9">
+        <v>331</v>
+      </c>
+      <c r="E9">
+        <v>288</v>
+      </c>
+      <c r="F9">
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>115</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>266</v>
+      </c>
+      <c r="K9">
+        <v>330</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>204.4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>203</v>
+      </c>
+      <c r="D10">
+        <v>162</v>
+      </c>
+      <c r="E10">
+        <v>393</v>
+      </c>
+      <c r="F10">
+        <v>198</v>
+      </c>
+      <c r="G10">
+        <v>104</v>
+      </c>
+      <c r="H10">
+        <v>180</v>
+      </c>
+      <c r="I10">
+        <v>164</v>
+      </c>
+      <c r="J10">
+        <v>225</v>
+      </c>
+      <c r="K10">
+        <v>404</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>338</v>
+      </c>
+      <c r="C11">
+        <v>217</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>196</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>259</v>
+      </c>
+      <c r="H11">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>58</v>
+      </c>
+      <c r="J11">
+        <v>266</v>
+      </c>
+      <c r="K11">
+        <v>342</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>176.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>175</v>
+      </c>
+      <c r="D12">
+        <v>181</v>
+      </c>
+      <c r="E12">
+        <v>165</v>
+      </c>
+      <c r="F12">
+        <v>290</v>
+      </c>
+      <c r="G12">
+        <v>81</v>
+      </c>
+      <c r="H12">
+        <v>172</v>
+      </c>
+      <c r="I12">
+        <v>271</v>
+      </c>
+      <c r="J12">
+        <v>440</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>183.7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>220</v>
+      </c>
+      <c r="C13">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>502</v>
+      </c>
+      <c r="F13">
+        <v>328</v>
+      </c>
+      <c r="G13">
+        <v>215</v>
+      </c>
+      <c r="H13">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>417</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>206.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>116</v>
+      </c>
+      <c r="C14">
+        <v>267</v>
+      </c>
+      <c r="D14">
+        <v>211</v>
+      </c>
+      <c r="E14">
+        <v>328</v>
+      </c>
+      <c r="F14">
+        <v>270</v>
+      </c>
+      <c r="G14">
+        <v>235</v>
+      </c>
+      <c r="H14">
+        <v>305</v>
+      </c>
+      <c r="I14">
+        <v>396</v>
+      </c>
+      <c r="J14">
+        <v>159</v>
+      </c>
+      <c r="K14">
+        <v>416</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>270.3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>138</v>
+      </c>
+      <c r="C15">
+        <v>228</v>
+      </c>
+      <c r="D15">
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>403</v>
+      </c>
+      <c r="H15">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <v>55</v>
+      </c>
+      <c r="J15">
+        <v>145</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>141.9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>184</v>
+      </c>
+      <c r="D16">
+        <v>193</v>
+      </c>
+      <c r="E16">
+        <v>121</v>
+      </c>
+      <c r="F16">
+        <v>197</v>
+      </c>
+      <c r="G16">
+        <v>377</v>
+      </c>
+      <c r="H16">
+        <v>221</v>
+      </c>
+      <c r="I16">
+        <v>170</v>
+      </c>
+      <c r="J16">
+        <v>305</v>
+      </c>
+      <c r="K16">
+        <v>435</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>228.8</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>405</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>281</v>
+      </c>
+      <c r="H17">
+        <v>248</v>
+      </c>
+      <c r="I17">
+        <v>90</v>
+      </c>
+      <c r="J17">
+        <v>172</v>
+      </c>
+      <c r="K17">
+        <v>296</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>176.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>178</v>
+      </c>
+      <c r="E18">
+        <v>149</v>
+      </c>
+      <c r="F18">
+        <v>439</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>229</v>
+      </c>
+      <c r="I18">
+        <v>208</v>
+      </c>
+      <c r="J18">
+        <v>114</v>
+      </c>
+      <c r="K18">
+        <v>350</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>179.7</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>276</v>
+      </c>
+      <c r="C19">
+        <v>269</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>141</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>289</v>
+      </c>
+      <c r="H19">
+        <v>429</v>
+      </c>
+      <c r="I19">
+        <v>55</v>
+      </c>
+      <c r="J19">
+        <v>216</v>
+      </c>
+      <c r="K19">
+        <v>517</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>226.8</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>363</v>
+      </c>
+      <c r="D20">
+        <v>370</v>
+      </c>
+      <c r="E20">
+        <v>294</v>
+      </c>
+      <c r="F20">
+        <v>256</v>
+      </c>
+      <c r="G20">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>311</v>
+      </c>
+      <c r="I20">
+        <v>366</v>
+      </c>
+      <c r="J20">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>278</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>237.6</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
         <v>20</v>
       </c>
-      <c r="M25" t="e">
+      <c r="M25">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>185.68</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +4497,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,189 +4509,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>414</v>
+      </c>
+      <c r="C1">
+        <v>507</v>
+      </c>
+      <c r="D1">
+        <v>467</v>
+      </c>
+      <c r="E1">
+        <v>231</v>
+      </c>
+      <c r="F1">
+        <v>312</v>
+      </c>
+      <c r="G1">
+        <v>241</v>
+      </c>
+      <c r="H1">
+        <v>273</v>
+      </c>
+      <c r="I1">
+        <v>30</v>
+      </c>
+      <c r="J1">
+        <v>509</v>
+      </c>
+      <c r="K1">
+        <v>451</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>204</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>226</v>
+      </c>
+      <c r="F2">
+        <v>379</v>
+      </c>
+      <c r="G2">
+        <v>431</v>
+      </c>
+      <c r="H2">
+        <v>470</v>
+      </c>
+      <c r="I2">
+        <v>552</v>
+      </c>
+      <c r="J2">
+        <v>101</v>
+      </c>
+      <c r="K2">
+        <v>159</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>266.3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>511</v>
+      </c>
+      <c r="C3">
+        <v>301</v>
+      </c>
+      <c r="D3">
+        <v>448</v>
+      </c>
+      <c r="E3">
+        <v>221</v>
+      </c>
+      <c r="F3">
+        <v>334</v>
+      </c>
+      <c r="G3">
+        <v>157</v>
+      </c>
+      <c r="H3">
+        <v>350</v>
+      </c>
+      <c r="I3">
+        <v>52</v>
+      </c>
+      <c r="J3">
+        <v>336</v>
+      </c>
+      <c r="K3">
+        <v>571</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>328.1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>159</v>
+      </c>
+      <c r="C4">
+        <v>373</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>192</v>
+      </c>
+      <c r="F4">
+        <v>366</v>
+      </c>
+      <c r="G4">
+        <v>322</v>
+      </c>
+      <c r="H4">
+        <v>271</v>
+      </c>
+      <c r="I4">
+        <v>450</v>
+      </c>
+      <c r="J4">
+        <v>181</v>
+      </c>
+      <c r="K4">
+        <v>34</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>239.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>285</v>
+      </c>
+      <c r="C5">
+        <v>229</v>
+      </c>
+      <c r="D5">
+        <v>593</v>
+      </c>
+      <c r="E5">
+        <v>279</v>
+      </c>
+      <c r="F5">
+        <v>279</v>
+      </c>
+      <c r="G5">
+        <v>241</v>
+      </c>
+      <c r="H5">
+        <v>256</v>
+      </c>
+      <c r="I5">
+        <v>646</v>
+      </c>
+      <c r="J5">
+        <v>465</v>
+      </c>
+      <c r="K5">
+        <v>455</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>372.8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>312</v>
+      </c>
+      <c r="C6">
+        <v>322</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>346</v>
+      </c>
+      <c r="F6">
+        <v>354</v>
+      </c>
+      <c r="G6">
+        <v>335</v>
+      </c>
+      <c r="H6">
+        <v>374</v>
+      </c>
+      <c r="I6">
+        <v>514</v>
+      </c>
+      <c r="J6">
+        <v>153</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>273.89999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <v>262</v>
+      </c>
+      <c r="D7">
+        <v>626</v>
+      </c>
+      <c r="E7">
+        <v>322</v>
+      </c>
+      <c r="F7">
+        <v>130</v>
+      </c>
+      <c r="G7">
+        <v>396</v>
+      </c>
+      <c r="H7">
+        <v>269</v>
+      </c>
+      <c r="I7">
+        <v>652</v>
+      </c>
+      <c r="J7">
+        <v>249</v>
+      </c>
+      <c r="K7">
+        <v>599</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>364.9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>311</v>
+      </c>
+      <c r="C8">
+        <v>361</v>
+      </c>
+      <c r="D8">
+        <v>690</v>
+      </c>
+      <c r="E8">
+        <v>195</v>
+      </c>
+      <c r="F8">
+        <v>392</v>
+      </c>
+      <c r="G8">
+        <v>158</v>
+      </c>
+      <c r="H8">
+        <v>452</v>
+      </c>
+      <c r="I8">
+        <v>642</v>
+      </c>
+      <c r="J8">
+        <v>158</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>338.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>286</v>
+      </c>
+      <c r="C9">
+        <v>267</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>348</v>
+      </c>
+      <c r="F9">
+        <v>108</v>
+      </c>
+      <c r="G9">
+        <v>517</v>
+      </c>
+      <c r="H9">
+        <v>49</v>
+      </c>
+      <c r="I9">
+        <v>505</v>
+      </c>
+      <c r="J9">
+        <v>361</v>
+      </c>
+      <c r="K9">
+        <v>553</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>302.39999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>374</v>
+      </c>
+      <c r="C10">
+        <v>187</v>
+      </c>
+      <c r="D10">
+        <v>392</v>
+      </c>
+      <c r="E10">
+        <v>147</v>
+      </c>
+      <c r="F10">
+        <v>474</v>
+      </c>
+      <c r="G10">
+        <v>141</v>
+      </c>
+      <c r="H10">
+        <v>522</v>
+      </c>
+      <c r="I10">
+        <v>699</v>
+      </c>
+      <c r="J10">
+        <v>121</v>
+      </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>308.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>399</v>
+      </c>
+      <c r="C11">
+        <v>305</v>
+      </c>
+      <c r="D11">
+        <v>155</v>
+      </c>
+      <c r="E11">
+        <v>434</v>
+      </c>
+      <c r="F11">
+        <v>103</v>
+      </c>
+      <c r="G11">
+        <v>390</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>569</v>
+      </c>
+      <c r="J11">
+        <v>468</v>
+      </c>
+      <c r="K11">
+        <v>519</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>337.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>256</v>
+      </c>
+      <c r="C12">
+        <v>303</v>
+      </c>
+      <c r="D12">
+        <v>392</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>450</v>
+      </c>
+      <c r="G12">
+        <v>122</v>
+      </c>
+      <c r="H12">
+        <v>384</v>
+      </c>
+      <c r="I12">
+        <v>559</v>
+      </c>
+      <c r="J12">
+        <v>82</v>
+      </c>
+      <c r="K12">
+        <v>42</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>261.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>321</v>
+      </c>
+      <c r="C13">
+        <v>325</v>
+      </c>
+      <c r="D13">
+        <v>382</v>
+      </c>
+      <c r="E13">
+        <v>447</v>
+      </c>
+      <c r="F13">
+        <v>114</v>
+      </c>
+      <c r="G13">
+        <v>380</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>26</v>
+      </c>
+      <c r="J13">
+        <v>445</v>
+      </c>
+      <c r="K13">
+        <v>507</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>301.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>202</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <v>329</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>557</v>
+      </c>
+      <c r="G14">
+        <v>209</v>
+      </c>
+      <c r="H14">
+        <v>478</v>
+      </c>
+      <c r="I14">
+        <v>600</v>
+      </c>
+      <c r="J14">
+        <v>135</v>
+      </c>
+      <c r="K14">
+        <v>68</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>275.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>322</v>
+      </c>
+      <c r="C15">
+        <v>401</v>
+      </c>
+      <c r="D15">
+        <v>332</v>
+      </c>
+      <c r="E15">
+        <v>627</v>
+      </c>
+      <c r="F15">
+        <v>208</v>
+      </c>
+      <c r="G15">
+        <v>160</v>
+      </c>
+      <c r="H15">
+        <v>119</v>
+      </c>
+      <c r="I15">
+        <v>632</v>
+      </c>
+      <c r="J15">
+        <v>352</v>
+      </c>
+      <c r="K15">
+        <v>437</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>156</v>
+      </c>
+      <c r="C16">
+        <v>117</v>
+      </c>
+      <c r="D16">
+        <v>388</v>
+      </c>
+      <c r="E16">
+        <v>630</v>
+      </c>
+      <c r="F16">
+        <v>327</v>
+      </c>
+      <c r="G16">
+        <v>362</v>
+      </c>
+      <c r="H16">
+        <v>338</v>
+      </c>
+      <c r="I16">
+        <v>56</v>
+      </c>
+      <c r="J16">
+        <v>302</v>
+      </c>
+      <c r="K16">
+        <v>110</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>278.60000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>429</v>
+      </c>
+      <c r="C17">
+        <v>428</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>348</v>
+      </c>
+      <c r="F17">
+        <v>275</v>
+      </c>
+      <c r="G17">
+        <v>218</v>
+      </c>
+      <c r="H17">
+        <v>149</v>
+      </c>
+      <c r="I17">
+        <v>456</v>
+      </c>
+      <c r="J17">
+        <v>239</v>
+      </c>
+      <c r="K17">
+        <v>443</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>194</v>
+      </c>
+      <c r="C18">
+        <v>528</v>
+      </c>
+      <c r="D18">
+        <v>613</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>245</v>
+      </c>
+      <c r="G18">
+        <v>385</v>
+      </c>
+      <c r="H18">
+        <v>481</v>
+      </c>
+      <c r="I18">
+        <v>328</v>
+      </c>
+      <c r="J18">
+        <v>438</v>
+      </c>
+      <c r="K18">
+        <v>157</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>338.5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>542</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>360</v>
+      </c>
+      <c r="F19">
+        <v>289</v>
+      </c>
+      <c r="G19">
+        <v>132</v>
+      </c>
+      <c r="H19">
+        <v>112</v>
+      </c>
+      <c r="I19">
+        <v>216</v>
+      </c>
+      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>460</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>226.5</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>543</v>
+      </c>
+      <c r="D20">
+        <v>402</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>153</v>
+      </c>
+      <c r="G20">
+        <v>451</v>
+      </c>
+      <c r="H20">
+        <v>321</v>
+      </c>
+      <c r="I20">
+        <v>388</v>
+      </c>
+      <c r="J20">
+        <v>679</v>
+      </c>
+      <c r="K20">
+        <v>63</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>314.60000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M26" t="s">
         <v>20</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N26">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>306.86</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +5304,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,189 +5316,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>534</v>
+      </c>
+      <c r="C1">
+        <v>25</v>
+      </c>
+      <c r="D1">
+        <v>324</v>
+      </c>
+      <c r="E1">
+        <v>751</v>
+      </c>
+      <c r="F1">
+        <v>715</v>
+      </c>
+      <c r="G1">
+        <v>874</v>
+      </c>
+      <c r="H1">
+        <v>620</v>
+      </c>
+      <c r="I1">
+        <v>493</v>
+      </c>
+      <c r="J1">
+        <v>909</v>
+      </c>
+      <c r="K1">
+        <v>395</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>373</v>
+      </c>
+      <c r="C2">
+        <v>925</v>
+      </c>
+      <c r="D2">
+        <v>655</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>339</v>
+      </c>
+      <c r="G2">
+        <v>162</v>
+      </c>
+      <c r="H2">
+        <v>368</v>
+      </c>
+      <c r="I2">
+        <v>772</v>
+      </c>
+      <c r="J2">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>565</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>421.4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>481</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>246</v>
+      </c>
+      <c r="E3">
+        <v>986</v>
+      </c>
+      <c r="F3">
+        <v>755</v>
+      </c>
+      <c r="G3">
+        <v>744</v>
+      </c>
+      <c r="H3">
+        <v>655</v>
+      </c>
+      <c r="I3">
+        <v>277</v>
+      </c>
+      <c r="J3">
+        <v>1076</v>
+      </c>
+      <c r="K3">
+        <v>589</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>589.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>346</v>
+      </c>
+      <c r="C4">
+        <v>873</v>
+      </c>
+      <c r="D4">
+        <v>573</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>342</v>
+      </c>
+      <c r="G4">
+        <v>303</v>
+      </c>
+      <c r="H4">
+        <v>218</v>
+      </c>
+      <c r="I4">
+        <v>831</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>420</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>399.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>550</v>
+      </c>
+      <c r="C5">
+        <v>193</v>
+      </c>
+      <c r="D5">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>794</v>
+      </c>
+      <c r="F5">
+        <v>650</v>
+      </c>
+      <c r="G5">
+        <v>726</v>
+      </c>
+      <c r="H5">
+        <v>707</v>
+      </c>
+      <c r="I5">
+        <v>219</v>
+      </c>
+      <c r="J5">
+        <v>996</v>
+      </c>
+      <c r="K5">
+        <v>448</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>547.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>266</v>
+      </c>
+      <c r="C6">
+        <v>847</v>
+      </c>
+      <c r="D6">
+        <v>934</v>
+      </c>
+      <c r="E6">
+        <v>179</v>
+      </c>
+      <c r="F6">
+        <v>191</v>
+      </c>
+      <c r="G6">
+        <v>344</v>
+      </c>
+      <c r="H6">
+        <v>192</v>
+      </c>
+      <c r="I6">
+        <v>736</v>
+      </c>
+      <c r="J6">
+        <v>71</v>
+      </c>
+      <c r="K6">
+        <v>291</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>405.1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>527</v>
+      </c>
+      <c r="C7">
+        <v>245</v>
+      </c>
+      <c r="D7">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>762</v>
+      </c>
+      <c r="F7">
+        <v>744</v>
+      </c>
+      <c r="G7">
+        <v>635</v>
+      </c>
+      <c r="H7">
+        <v>755</v>
+      </c>
+      <c r="I7">
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <v>916</v>
+      </c>
+      <c r="K7">
+        <v>702</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>556.70000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>309</v>
+      </c>
+      <c r="C8">
+        <v>726</v>
+      </c>
+      <c r="D8">
+        <v>697</v>
+      </c>
+      <c r="E8">
+        <v>152</v>
+      </c>
+      <c r="F8">
+        <v>180</v>
+      </c>
+      <c r="G8">
+        <v>138</v>
+      </c>
+      <c r="H8">
+        <v>365</v>
+      </c>
+      <c r="I8">
+        <v>695</v>
+      </c>
+      <c r="J8">
+        <v>104</v>
+      </c>
+      <c r="K8">
+        <v>82</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>344.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>842</v>
+      </c>
+      <c r="C9">
+        <v>299</v>
+      </c>
+      <c r="D9">
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <v>814</v>
+      </c>
+      <c r="F9">
+        <v>580</v>
+      </c>
+      <c r="G9">
+        <v>649</v>
+      </c>
+      <c r="H9">
+        <v>559</v>
+      </c>
+      <c r="I9">
+        <v>91</v>
+      </c>
+      <c r="J9">
+        <v>913</v>
+      </c>
+      <c r="K9">
+        <v>775</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>654</v>
+      </c>
+      <c r="D10">
+        <v>791</v>
+      </c>
+      <c r="E10">
+        <v>163</v>
+      </c>
+      <c r="F10">
+        <v>278</v>
+      </c>
+      <c r="G10">
+        <v>178</v>
+      </c>
+      <c r="H10">
+        <v>270</v>
+      </c>
+      <c r="I10">
+        <v>777</v>
+      </c>
+      <c r="J10">
+        <v>150</v>
+      </c>
+      <c r="K10">
+        <v>138</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>349.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>640</v>
+      </c>
+      <c r="C11">
+        <v>280</v>
+      </c>
+      <c r="D11">
+        <v>291</v>
+      </c>
+      <c r="E11">
+        <v>717</v>
+      </c>
+      <c r="F11">
+        <v>596</v>
+      </c>
+      <c r="G11">
+        <v>553</v>
+      </c>
+      <c r="H11">
+        <v>518</v>
+      </c>
+      <c r="I11">
+        <v>57</v>
+      </c>
+      <c r="J11">
+        <v>909</v>
+      </c>
+      <c r="K11">
+        <v>730</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>529.1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>131</v>
+      </c>
+      <c r="C12">
+        <v>456</v>
+      </c>
+      <c r="D12">
+        <v>614</v>
+      </c>
+      <c r="E12">
+        <v>251</v>
+      </c>
+      <c r="F12">
+        <v>354</v>
+      </c>
+      <c r="G12">
+        <v>277</v>
+      </c>
+      <c r="H12">
+        <v>352</v>
+      </c>
+      <c r="I12">
+        <v>738</v>
+      </c>
+      <c r="J12">
+        <v>220</v>
+      </c>
+      <c r="K12">
+        <v>122</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>351.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>578</v>
+      </c>
+      <c r="C13">
+        <v>395</v>
+      </c>
+      <c r="D13">
+        <v>370</v>
+      </c>
+      <c r="E13">
+        <v>543</v>
+      </c>
+      <c r="F13">
+        <v>469</v>
+      </c>
+      <c r="G13">
+        <v>851</v>
+      </c>
+      <c r="H13">
+        <v>562</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>847</v>
+      </c>
+      <c r="K13">
+        <v>750</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>250</v>
+      </c>
+      <c r="C14">
+        <v>712</v>
+      </c>
+      <c r="D14">
+        <v>610</v>
+      </c>
+      <c r="E14">
+        <v>377</v>
+      </c>
+      <c r="F14">
+        <v>411</v>
+      </c>
+      <c r="G14">
+        <v>140</v>
+      </c>
+      <c r="H14">
+        <v>375</v>
+      </c>
+      <c r="I14">
+        <v>914</v>
+      </c>
+      <c r="J14">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>99</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>393.6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>659</v>
+      </c>
+      <c r="C15">
+        <v>304</v>
+      </c>
+      <c r="D15">
+        <v>539</v>
+      </c>
+      <c r="E15">
+        <v>732</v>
+      </c>
+      <c r="F15">
+        <v>479</v>
+      </c>
+      <c r="G15">
+        <v>800</v>
+      </c>
+      <c r="H15">
+        <v>575</v>
+      </c>
+      <c r="I15">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>798</v>
+      </c>
+      <c r="K15">
+        <v>820</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>573.9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>257</v>
+      </c>
+      <c r="C16">
+        <v>693</v>
+      </c>
+      <c r="D16">
+        <v>292</v>
+      </c>
+      <c r="E16">
+        <v>173</v>
+      </c>
+      <c r="F16">
+        <v>413</v>
+      </c>
+      <c r="G16">
+        <v>59</v>
+      </c>
+      <c r="H16">
+        <v>361</v>
+      </c>
+      <c r="I16">
+        <v>789</v>
+      </c>
+      <c r="J16">
+        <v>205</v>
+      </c>
+      <c r="K16">
+        <v>139</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>338.1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>772</v>
+      </c>
+      <c r="C17">
+        <v>170</v>
+      </c>
+      <c r="D17">
+        <v>705</v>
+      </c>
+      <c r="E17">
+        <v>825</v>
+      </c>
+      <c r="F17">
+        <v>604</v>
+      </c>
+      <c r="G17">
+        <v>892</v>
+      </c>
+      <c r="H17">
+        <v>572</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>569</v>
+      </c>
+      <c r="K17">
+        <v>821</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>598.4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>236</v>
+      </c>
+      <c r="C18">
+        <v>655</v>
+      </c>
+      <c r="D18">
+        <v>129</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>337</v>
+      </c>
+      <c r="G18">
+        <v>56</v>
+      </c>
+      <c r="H18">
+        <v>158</v>
+      </c>
+      <c r="I18">
+        <v>830</v>
+      </c>
+      <c r="J18">
+        <v>414</v>
+      </c>
+      <c r="K18">
+        <v>195</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>305.5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>695</v>
+      </c>
+      <c r="C19">
+        <v>241</v>
+      </c>
+      <c r="D19">
+        <v>820</v>
+      </c>
+      <c r="E19">
+        <v>681</v>
+      </c>
+      <c r="F19">
+        <v>617</v>
+      </c>
+      <c r="G19">
+        <v>851</v>
+      </c>
+      <c r="H19">
+        <v>511</v>
+      </c>
+      <c r="I19">
+        <v>99</v>
+      </c>
+      <c r="J19">
+        <v>505</v>
+      </c>
+      <c r="K19">
+        <v>581</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>560.1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>386</v>
+      </c>
+      <c r="C20">
+        <v>539</v>
+      </c>
+      <c r="D20">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>187</v>
+      </c>
+      <c r="G20">
+        <v>74</v>
+      </c>
+      <c r="H20">
+        <v>422</v>
+      </c>
+      <c r="I20">
+        <v>881</v>
+      </c>
+      <c r="J20">
+        <v>366</v>
+      </c>
+      <c r="K20">
+        <v>203</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M26" t="s">
         <v>20</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N26">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>462.6</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +6111,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1923,189 +6123,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>906</v>
+      </c>
+      <c r="C1">
+        <v>1085</v>
+      </c>
+      <c r="D1">
+        <v>184</v>
+      </c>
+      <c r="E1">
+        <v>652</v>
+      </c>
+      <c r="F1">
+        <v>422</v>
+      </c>
+      <c r="G1">
+        <v>882</v>
+      </c>
+      <c r="H1">
+        <v>1005</v>
+      </c>
+      <c r="I1">
+        <v>528</v>
+      </c>
+      <c r="J1">
+        <v>922</v>
+      </c>
+      <c r="K1">
+        <v>117</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>670.3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>1194</v>
+      </c>
+      <c r="D2">
+        <v>1108</v>
+      </c>
+      <c r="E2">
+        <v>458</v>
+      </c>
+      <c r="F2">
+        <v>811</v>
+      </c>
+      <c r="G2">
+        <v>374</v>
+      </c>
+      <c r="H2">
+        <v>115</v>
+      </c>
+      <c r="I2">
+        <v>523</v>
+      </c>
+      <c r="J2">
+        <v>188</v>
+      </c>
+      <c r="K2">
+        <v>1164</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>605.9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>1042</v>
+      </c>
+      <c r="C3">
+        <v>1292</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>819</v>
+      </c>
+      <c r="F3">
+        <v>324</v>
+      </c>
+      <c r="G3">
+        <v>869</v>
+      </c>
+      <c r="H3">
+        <v>1184</v>
+      </c>
+      <c r="I3">
+        <v>613</v>
+      </c>
+      <c r="J3">
+        <v>897</v>
+      </c>
+      <c r="K3">
+        <v>125</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>723.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1149</v>
+      </c>
+      <c r="E4">
+        <v>498</v>
+      </c>
+      <c r="F4">
+        <v>1010</v>
+      </c>
+      <c r="G4">
+        <v>421</v>
+      </c>
+      <c r="H4">
+        <v>116</v>
+      </c>
+      <c r="I4">
+        <v>593</v>
+      </c>
+      <c r="J4">
+        <v>302</v>
+      </c>
+      <c r="K4">
+        <v>1079</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>530.70000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1117</v>
+      </c>
+      <c r="C5">
+        <v>1219</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>985</v>
+      </c>
+      <c r="F5">
+        <v>248</v>
+      </c>
+      <c r="G5">
+        <v>724</v>
+      </c>
+      <c r="H5">
+        <v>1161</v>
+      </c>
+      <c r="I5">
+        <v>871</v>
+      </c>
+      <c r="J5">
+        <v>1101</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>761.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>159</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1237</v>
+      </c>
+      <c r="E6">
+        <v>617</v>
+      </c>
+      <c r="F6">
+        <v>1074</v>
+      </c>
+      <c r="G6">
+        <v>627</v>
+      </c>
+      <c r="H6">
+        <v>71</v>
+      </c>
+      <c r="I6">
+        <v>321</v>
+      </c>
+      <c r="J6">
+        <v>318</v>
+      </c>
+      <c r="K6">
+        <v>1024</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>546.79999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>1083</v>
+      </c>
+      <c r="C7">
+        <v>1029</v>
+      </c>
+      <c r="D7">
+        <v>257</v>
+      </c>
+      <c r="E7">
+        <v>1198</v>
+      </c>
+      <c r="F7">
+        <v>462</v>
+      </c>
+      <c r="G7">
+        <v>718</v>
+      </c>
+      <c r="H7">
+        <v>1236</v>
+      </c>
+      <c r="I7">
+        <v>1059</v>
+      </c>
+      <c r="J7">
+        <v>928</v>
+      </c>
+      <c r="K7">
+        <v>122</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>809.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>889</v>
+      </c>
+      <c r="E8">
+        <v>256</v>
+      </c>
+      <c r="F8">
+        <v>735</v>
+      </c>
+      <c r="G8">
+        <v>741</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>453</v>
+      </c>
+      <c r="J8">
+        <v>87</v>
+      </c>
+      <c r="K8">
+        <v>993</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>445.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>1047</v>
+      </c>
+      <c r="C9">
+        <v>1436</v>
+      </c>
+      <c r="D9">
+        <v>437</v>
+      </c>
+      <c r="E9">
+        <v>1106</v>
+      </c>
+      <c r="F9">
+        <v>548</v>
+      </c>
+      <c r="G9">
+        <v>510</v>
+      </c>
+      <c r="H9">
+        <v>1131</v>
+      </c>
+      <c r="I9">
+        <v>1013</v>
+      </c>
+      <c r="J9">
+        <v>1310</v>
+      </c>
+      <c r="K9">
+        <v>92</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>379</v>
+      </c>
+      <c r="C10">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>974</v>
+      </c>
+      <c r="E10">
+        <v>152</v>
+      </c>
+      <c r="F10">
+        <v>592</v>
+      </c>
+      <c r="G10">
+        <v>658</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>267</v>
+      </c>
+      <c r="J10">
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>1029</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>424.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>875</v>
+      </c>
+      <c r="C11">
+        <v>1078</v>
+      </c>
+      <c r="D11">
+        <v>323</v>
+      </c>
+      <c r="E11">
+        <v>1146</v>
+      </c>
+      <c r="F11">
+        <v>662</v>
+      </c>
+      <c r="G11">
+        <v>619</v>
+      </c>
+      <c r="H11">
+        <v>1131</v>
+      </c>
+      <c r="I11">
+        <v>1131</v>
+      </c>
+      <c r="J11">
+        <v>1248</v>
+      </c>
+      <c r="K11">
+        <v>334</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>854.7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>274</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>1020</v>
+      </c>
+      <c r="E12">
+        <v>189</v>
+      </c>
+      <c r="F12">
+        <v>594</v>
+      </c>
+      <c r="G12">
+        <v>815</v>
+      </c>
+      <c r="H12">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>365</v>
+      </c>
+      <c r="J12">
+        <v>39</v>
+      </c>
+      <c r="K12">
+        <v>897</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>431.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>983</v>
+      </c>
+      <c r="C13">
+        <v>1292</v>
+      </c>
+      <c r="D13">
+        <v>327</v>
+      </c>
+      <c r="E13">
+        <v>1122</v>
+      </c>
+      <c r="F13">
+        <v>409</v>
+      </c>
+      <c r="G13">
+        <v>283</v>
+      </c>
+      <c r="H13">
+        <v>1147</v>
+      </c>
+      <c r="I13">
+        <v>746</v>
+      </c>
+      <c r="J13">
+        <v>1090</v>
+      </c>
+      <c r="K13">
+        <v>279</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>767.8</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>163</v>
+      </c>
+      <c r="C14">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>844</v>
+      </c>
+      <c r="E14">
+        <v>210</v>
+      </c>
+      <c r="F14">
+        <v>789</v>
+      </c>
+      <c r="G14">
+        <v>1010</v>
+      </c>
+      <c r="H14">
+        <v>220</v>
+      </c>
+      <c r="I14">
+        <v>655</v>
+      </c>
+      <c r="J14">
+        <v>91</v>
+      </c>
+      <c r="K14">
+        <v>894</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>492.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>1010</v>
+      </c>
+      <c r="C15">
+        <v>1073</v>
+      </c>
+      <c r="D15">
+        <v>229</v>
+      </c>
+      <c r="E15">
+        <v>1014</v>
+      </c>
+      <c r="F15">
+        <v>287</v>
+      </c>
+      <c r="G15">
+        <v>132</v>
+      </c>
+      <c r="H15">
+        <v>1059</v>
+      </c>
+      <c r="I15">
+        <v>721</v>
+      </c>
+      <c r="J15">
+        <v>1129</v>
+      </c>
+      <c r="K15">
+        <v>360</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>701.4</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>311</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>1028</v>
+      </c>
+      <c r="E16">
+        <v>135</v>
+      </c>
+      <c r="F16">
+        <v>869</v>
+      </c>
+      <c r="G16">
+        <v>994</v>
+      </c>
+      <c r="H16">
+        <v>213</v>
+      </c>
+      <c r="I16">
+        <v>459</v>
+      </c>
+      <c r="J16">
+        <v>190</v>
+      </c>
+      <c r="K16">
+        <v>706</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>496.2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>931</v>
+      </c>
+      <c r="C17">
+        <v>1135</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>1151</v>
+      </c>
+      <c r="F17">
+        <v>292</v>
+      </c>
+      <c r="G17">
+        <v>265</v>
+      </c>
+      <c r="H17">
+        <v>1011</v>
+      </c>
+      <c r="I17">
+        <v>704</v>
+      </c>
+      <c r="J17">
+        <v>782</v>
+      </c>
+      <c r="K17">
+        <v>481</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>696.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>348</v>
+      </c>
+      <c r="C18">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>1008</v>
+      </c>
+      <c r="E18">
+        <v>175</v>
+      </c>
+      <c r="F18">
+        <v>970</v>
+      </c>
+      <c r="G18">
+        <v>949</v>
+      </c>
+      <c r="H18">
+        <v>99</v>
+      </c>
+      <c r="I18">
+        <v>546</v>
+      </c>
+      <c r="J18">
+        <v>299</v>
+      </c>
+      <c r="K18">
+        <v>566</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>502.2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>862</v>
+      </c>
+      <c r="C19">
+        <v>1069</v>
+      </c>
+      <c r="D19">
+        <v>199</v>
+      </c>
+      <c r="E19">
+        <v>997</v>
+      </c>
+      <c r="F19">
+        <v>276</v>
+      </c>
+      <c r="G19">
+        <v>351</v>
+      </c>
+      <c r="H19">
+        <v>1192</v>
+      </c>
+      <c r="I19">
+        <v>568</v>
+      </c>
+      <c r="J19">
+        <v>818</v>
+      </c>
+      <c r="K19">
+        <v>524</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>685.6</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>485</v>
+      </c>
+      <c r="C20">
+        <v>282</v>
+      </c>
+      <c r="D20">
+        <v>1214</v>
+      </c>
+      <c r="E20">
+        <v>127</v>
+      </c>
+      <c r="F20">
+        <v>759</v>
+      </c>
+      <c r="G20">
+        <v>757</v>
+      </c>
+      <c r="H20">
+        <v>66</v>
+      </c>
+      <c r="I20">
+        <v>626</v>
+      </c>
+      <c r="J20">
+        <v>427</v>
+      </c>
+      <c r="K20">
+        <v>842</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>558.5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
         <v>20</v>
       </c>
-      <c r="M29" t="e">
+      <c r="M29">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>628.42999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2118,7 +6918,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2130,189 +6930,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>703</v>
+      </c>
+      <c r="C1">
+        <v>711</v>
+      </c>
+      <c r="D1">
+        <v>448</v>
+      </c>
+      <c r="E1">
+        <v>1721</v>
+      </c>
+      <c r="F1">
+        <v>1273</v>
+      </c>
+      <c r="G1">
+        <v>867</v>
+      </c>
+      <c r="H1">
+        <v>1573</v>
+      </c>
+      <c r="I1">
+        <v>969</v>
+      </c>
+      <c r="J1">
+        <v>486</v>
+      </c>
+      <c r="K1">
+        <v>547</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>929.8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>1058</v>
+      </c>
+      <c r="C2">
+        <v>940</v>
+      </c>
+      <c r="D2">
+        <v>1246</v>
+      </c>
+      <c r="E2">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>440</v>
+      </c>
+      <c r="G2">
+        <v>847</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>701</v>
+      </c>
+      <c r="J2">
+        <v>1391</v>
+      </c>
+      <c r="K2">
+        <v>823</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>753.3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>725</v>
+      </c>
+      <c r="C3">
+        <v>619</v>
+      </c>
+      <c r="D3">
+        <v>294</v>
+      </c>
+      <c r="E3">
+        <v>1849</v>
+      </c>
+      <c r="F3">
+        <v>1118</v>
+      </c>
+      <c r="G3">
+        <v>766</v>
+      </c>
+      <c r="H3">
+        <v>1491</v>
+      </c>
+      <c r="I3">
+        <v>767</v>
+      </c>
+      <c r="J3">
+        <v>407</v>
+      </c>
+      <c r="K3">
+        <v>737</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>877.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>1036</v>
+      </c>
+      <c r="C4">
+        <v>1025</v>
+      </c>
+      <c r="D4">
+        <v>1481</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>381</v>
+      </c>
+      <c r="G4">
+        <v>772</v>
+      </c>
+      <c r="H4">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>884</v>
+      </c>
+      <c r="J4">
+        <v>1073</v>
+      </c>
+      <c r="K4">
+        <v>832</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>754.3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>875</v>
+      </c>
+      <c r="C5">
+        <v>549</v>
+      </c>
+      <c r="D5">
+        <v>257</v>
+      </c>
+      <c r="E5">
+        <v>1811</v>
+      </c>
+      <c r="F5">
+        <v>1267</v>
+      </c>
+      <c r="G5">
+        <v>667</v>
+      </c>
+      <c r="H5">
+        <v>1294</v>
+      </c>
+      <c r="I5">
+        <v>797</v>
+      </c>
+      <c r="J5">
+        <v>358</v>
+      </c>
+      <c r="K5">
+        <v>688</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>856.3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>752</v>
+      </c>
+      <c r="C6">
+        <v>1079</v>
+      </c>
+      <c r="D6">
+        <v>1355</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>523</v>
+      </c>
+      <c r="G6">
+        <v>752</v>
+      </c>
+      <c r="H6">
+        <v>302</v>
+      </c>
+      <c r="I6">
+        <v>890</v>
+      </c>
+      <c r="J6">
+        <v>1269</v>
+      </c>
+      <c r="K6">
+        <v>888</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>759</v>
+      </c>
+      <c r="C7">
+        <v>539</v>
+      </c>
+      <c r="D7">
+        <v>327</v>
+      </c>
+      <c r="E7">
+        <v>1643</v>
+      </c>
+      <c r="F7">
+        <v>1103</v>
+      </c>
+      <c r="G7">
+        <v>930</v>
+      </c>
+      <c r="H7">
+        <v>1199</v>
+      </c>
+      <c r="I7">
+        <v>787</v>
+      </c>
+      <c r="J7">
+        <v>548</v>
+      </c>
+      <c r="K7">
+        <v>699</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>853.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>768</v>
+      </c>
+      <c r="C8">
+        <v>1275</v>
+      </c>
+      <c r="D8">
+        <v>1384</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>435</v>
+      </c>
+      <c r="G8">
+        <v>904</v>
+      </c>
+      <c r="H8">
+        <v>319</v>
+      </c>
+      <c r="I8">
+        <v>994</v>
+      </c>
+      <c r="J8">
+        <v>1293</v>
+      </c>
+      <c r="K8">
+        <v>1200</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>859.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>913</v>
+      </c>
+      <c r="C9">
+        <v>466</v>
+      </c>
+      <c r="D9">
+        <v>307</v>
+      </c>
+      <c r="E9">
+        <v>1656</v>
+      </c>
+      <c r="F9">
+        <v>1146</v>
+      </c>
+      <c r="G9">
+        <v>753</v>
+      </c>
+      <c r="H9">
+        <v>1257</v>
+      </c>
+      <c r="I9">
+        <v>724</v>
+      </c>
+      <c r="J9">
+        <v>534</v>
+      </c>
+      <c r="K9">
+        <v>629</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>838.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>699</v>
+      </c>
+      <c r="C10">
+        <v>1048</v>
+      </c>
+      <c r="D10">
+        <v>1411</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>451</v>
+      </c>
+      <c r="G10">
+        <v>666</v>
+      </c>
+      <c r="H10">
+        <v>568</v>
+      </c>
+      <c r="I10">
+        <v>966</v>
+      </c>
+      <c r="J10">
+        <v>1127</v>
+      </c>
+      <c r="K10">
+        <v>1099</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>805.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>1016</v>
+      </c>
+      <c r="C11">
+        <v>595</v>
+      </c>
+      <c r="D11">
+        <v>308</v>
+      </c>
+      <c r="E11">
+        <v>1602</v>
+      </c>
+      <c r="F11">
+        <v>1303</v>
+      </c>
+      <c r="G11">
+        <v>980</v>
+      </c>
+      <c r="H11">
+        <v>1252</v>
+      </c>
+      <c r="I11">
+        <v>570</v>
+      </c>
+      <c r="J11">
+        <v>479</v>
+      </c>
+      <c r="K11">
+        <v>697</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>880.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>735</v>
+      </c>
+      <c r="C12">
+        <v>1156</v>
+      </c>
+      <c r="D12">
+        <v>1468</v>
+      </c>
+      <c r="E12">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>442</v>
+      </c>
+      <c r="G12">
+        <v>691</v>
+      </c>
+      <c r="H12">
+        <v>527</v>
+      </c>
+      <c r="I12">
+        <v>1084</v>
+      </c>
+      <c r="J12">
+        <v>1069</v>
+      </c>
+      <c r="K12">
+        <v>1048</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>827.7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>924</v>
+      </c>
+      <c r="C13">
+        <v>685</v>
+      </c>
+      <c r="D13">
+        <v>479</v>
+      </c>
+      <c r="E13">
+        <v>1531</v>
+      </c>
+      <c r="F13">
+        <v>1226</v>
+      </c>
+      <c r="G13">
+        <v>968</v>
+      </c>
+      <c r="H13">
+        <v>1050</v>
+      </c>
+      <c r="I13">
+        <v>784</v>
+      </c>
+      <c r="J13">
+        <v>659</v>
+      </c>
+      <c r="K13">
+        <v>703</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>900.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>766</v>
+      </c>
+      <c r="C14">
+        <v>892</v>
+      </c>
+      <c r="D14">
+        <v>1285</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>358</v>
+      </c>
+      <c r="G14">
+        <v>526</v>
+      </c>
+      <c r="H14">
+        <v>647</v>
+      </c>
+      <c r="I14">
+        <v>990</v>
+      </c>
+      <c r="J14">
+        <v>1268</v>
+      </c>
+      <c r="K14">
+        <v>1206</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>798.3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>866</v>
+      </c>
+      <c r="C15">
+        <v>489</v>
+      </c>
+      <c r="D15">
+        <v>254</v>
+      </c>
+      <c r="E15">
+        <v>1519</v>
+      </c>
+      <c r="F15">
+        <v>1313</v>
+      </c>
+      <c r="G15">
+        <v>1016</v>
+      </c>
+      <c r="H15">
+        <v>925</v>
+      </c>
+      <c r="I15">
+        <v>495</v>
+      </c>
+      <c r="J15">
+        <v>459</v>
+      </c>
+      <c r="K15">
+        <v>616</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>795.2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>588</v>
+      </c>
+      <c r="C16">
+        <v>1124</v>
+      </c>
+      <c r="D16">
+        <v>1492</v>
+      </c>
+      <c r="E16">
+        <v>143</v>
+      </c>
+      <c r="F16">
+        <v>396</v>
+      </c>
+      <c r="G16">
+        <v>712</v>
+      </c>
+      <c r="H16">
+        <v>866</v>
+      </c>
+      <c r="I16">
+        <v>1173</v>
+      </c>
+      <c r="J16">
+        <v>1157</v>
+      </c>
+      <c r="K16">
+        <v>1316</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>896.7</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>1084</v>
+      </c>
+      <c r="C17">
+        <v>647</v>
+      </c>
+      <c r="D17">
+        <v>196</v>
+      </c>
+      <c r="E17">
+        <v>1575</v>
+      </c>
+      <c r="F17">
+        <v>1240</v>
+      </c>
+      <c r="G17">
+        <v>835</v>
+      </c>
+      <c r="H17">
+        <v>954</v>
+      </c>
+      <c r="I17">
+        <v>607</v>
+      </c>
+      <c r="J17">
+        <v>578</v>
+      </c>
+      <c r="K17">
+        <v>607</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>832.3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>656</v>
+      </c>
+      <c r="C18">
+        <v>1171</v>
+      </c>
+      <c r="D18">
+        <v>1683</v>
+      </c>
+      <c r="E18">
+        <v>131</v>
+      </c>
+      <c r="F18">
+        <v>439</v>
+      </c>
+      <c r="G18">
+        <v>824</v>
+      </c>
+      <c r="H18">
+        <v>714</v>
+      </c>
+      <c r="I18">
+        <v>1179</v>
+      </c>
+      <c r="J18">
+        <v>1189</v>
+      </c>
+      <c r="K18">
+        <v>1163</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>914.9</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>1067</v>
+      </c>
+      <c r="C19">
+        <v>591</v>
+      </c>
+      <c r="D19">
+        <v>153</v>
+      </c>
+      <c r="E19">
+        <v>1514</v>
+      </c>
+      <c r="F19">
+        <v>1030</v>
+      </c>
+      <c r="G19">
+        <v>830</v>
+      </c>
+      <c r="H19">
+        <v>923</v>
+      </c>
+      <c r="I19">
+        <v>635</v>
+      </c>
+      <c r="J19">
+        <v>669</v>
+      </c>
+      <c r="K19">
+        <v>600</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>801.2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>766</v>
+      </c>
+      <c r="C20">
+        <v>796</v>
+      </c>
+      <c r="D20">
+        <v>1728</v>
+      </c>
+      <c r="E20">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>461</v>
+      </c>
+      <c r="G20">
+        <v>801</v>
+      </c>
+      <c r="H20">
+        <v>626</v>
+      </c>
+      <c r="I20">
+        <v>985</v>
+      </c>
+      <c r="J20">
+        <v>1195</v>
+      </c>
+      <c r="K20">
+        <v>1115</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>851.5</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M28" t="s">
         <v>20</v>
       </c>
-      <c r="N28" t="e">
+      <c r="N28">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>840.43500000000006</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +7725,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2337,189 +7737,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>578</v>
+      </c>
+      <c r="C1">
+        <v>1560</v>
+      </c>
+      <c r="D1">
+        <v>1890</v>
+      </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>924</v>
+      </c>
+      <c r="G1">
+        <v>1584</v>
+      </c>
+      <c r="H1">
+        <v>1374</v>
+      </c>
+      <c r="I1">
+        <v>916</v>
+      </c>
+      <c r="J1">
+        <v>1256</v>
+      </c>
+      <c r="K1">
+        <v>1262</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>1135.3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>1672</v>
+      </c>
+      <c r="C2">
+        <v>680</v>
+      </c>
+      <c r="D2">
+        <v>344</v>
+      </c>
+      <c r="E2">
+        <v>1575</v>
+      </c>
+      <c r="F2">
+        <v>1180</v>
+      </c>
+      <c r="G2">
+        <v>857</v>
+      </c>
+      <c r="H2">
+        <v>879</v>
+      </c>
+      <c r="I2">
+        <v>1049</v>
+      </c>
+      <c r="J2">
+        <v>1037</v>
+      </c>
+      <c r="K2">
+        <v>1155</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>1042.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>499</v>
+      </c>
+      <c r="C3">
+        <v>1487</v>
+      </c>
+      <c r="D3">
+        <v>1987</v>
+      </c>
+      <c r="E3">
+        <v>562</v>
+      </c>
+      <c r="F3">
+        <v>918</v>
+      </c>
+      <c r="G3">
+        <v>1475</v>
+      </c>
+      <c r="H3">
+        <v>1193</v>
+      </c>
+      <c r="I3">
+        <v>953</v>
+      </c>
+      <c r="J3">
+        <v>1199</v>
+      </c>
+      <c r="K3">
+        <v>968</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1124.0999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>1632</v>
+      </c>
+      <c r="C4">
+        <v>786</v>
+      </c>
+      <c r="D4">
+        <v>418</v>
+      </c>
+      <c r="E4">
+        <v>1597</v>
+      </c>
+      <c r="F4">
+        <v>1441</v>
+      </c>
+      <c r="G4">
+        <v>633</v>
+      </c>
+      <c r="H4">
+        <v>1109</v>
+      </c>
+      <c r="I4">
+        <v>1271</v>
+      </c>
+      <c r="J4">
+        <v>894</v>
+      </c>
+      <c r="K4">
+        <v>1290</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1107.0999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>491</v>
+      </c>
+      <c r="C5">
+        <v>1343</v>
+      </c>
+      <c r="D5">
+        <v>2043</v>
+      </c>
+      <c r="E5">
+        <v>477</v>
+      </c>
+      <c r="F5">
+        <v>712</v>
+      </c>
+      <c r="G5">
+        <v>1398</v>
+      </c>
+      <c r="H5">
+        <v>1380</v>
+      </c>
+      <c r="I5">
+        <v>919</v>
+      </c>
+      <c r="J5">
+        <v>1302</v>
+      </c>
+      <c r="K5">
+        <v>1026</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1109.0999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>1573</v>
+      </c>
+      <c r="C6">
+        <v>824</v>
+      </c>
+      <c r="D6">
+        <v>301</v>
+      </c>
+      <c r="E6">
+        <v>1601</v>
+      </c>
+      <c r="F6">
+        <v>1423</v>
+      </c>
+      <c r="G6">
+        <v>630</v>
+      </c>
+      <c r="H6">
+        <v>906</v>
+      </c>
+      <c r="I6">
+        <v>1302</v>
+      </c>
+      <c r="J6">
+        <v>901</v>
+      </c>
+      <c r="K6">
+        <v>1324</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1078.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>566</v>
+      </c>
+      <c r="C7">
+        <v>1371</v>
+      </c>
+      <c r="D7">
+        <v>1786</v>
+      </c>
+      <c r="E7">
+        <v>561</v>
+      </c>
+      <c r="F7">
+        <v>1145</v>
+      </c>
+      <c r="G7">
+        <v>1536</v>
+      </c>
+      <c r="H7">
+        <v>1041</v>
+      </c>
+      <c r="I7">
+        <v>835</v>
+      </c>
+      <c r="J7">
+        <v>1298</v>
+      </c>
+      <c r="K7">
+        <v>1133</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1127.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>1636</v>
+      </c>
+      <c r="C8">
+        <v>588</v>
+      </c>
+      <c r="D8">
+        <v>344</v>
+      </c>
+      <c r="E8">
+        <v>1512</v>
+      </c>
+      <c r="F8">
+        <v>1027</v>
+      </c>
+      <c r="G8">
+        <v>607</v>
+      </c>
+      <c r="H8">
+        <v>888</v>
+      </c>
+      <c r="I8">
+        <v>1271</v>
+      </c>
+      <c r="J8">
+        <v>1048</v>
+      </c>
+      <c r="K8">
+        <v>1247</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1016.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>460</v>
+      </c>
+      <c r="C9">
+        <v>1635</v>
+      </c>
+      <c r="D9">
+        <v>1776</v>
+      </c>
+      <c r="E9">
+        <v>592</v>
+      </c>
+      <c r="F9">
+        <v>1030</v>
+      </c>
+      <c r="G9">
+        <v>1603</v>
+      </c>
+      <c r="H9">
+        <v>1055</v>
+      </c>
+      <c r="I9">
+        <v>790</v>
+      </c>
+      <c r="J9">
+        <v>1244</v>
+      </c>
+      <c r="K9">
+        <v>1089</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1127.4000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>1575</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>331</v>
+      </c>
+      <c r="E10">
+        <v>1488</v>
+      </c>
+      <c r="F10">
+        <v>1097</v>
+      </c>
+      <c r="G10">
+        <v>644</v>
+      </c>
+      <c r="H10">
+        <v>1087</v>
+      </c>
+      <c r="I10">
+        <v>1419</v>
+      </c>
+      <c r="J10">
+        <v>925</v>
+      </c>
+      <c r="K10">
+        <v>1011</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1007.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>440</v>
+      </c>
+      <c r="C11">
+        <v>1441</v>
+      </c>
+      <c r="D11">
+        <v>1763</v>
+      </c>
+      <c r="E11">
+        <v>571</v>
+      </c>
+      <c r="F11">
+        <v>987</v>
+      </c>
+      <c r="G11">
+        <v>1533</v>
+      </c>
+      <c r="H11">
+        <v>998</v>
+      </c>
+      <c r="I11">
+        <v>837</v>
+      </c>
+      <c r="J11">
+        <v>1061</v>
+      </c>
+      <c r="K11">
+        <v>918</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1054.9000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>1768</v>
+      </c>
+      <c r="C12">
+        <v>625</v>
+      </c>
+      <c r="D12">
+        <v>477</v>
+      </c>
+      <c r="E12">
+        <v>1428</v>
+      </c>
+      <c r="F12">
+        <v>1248</v>
+      </c>
+      <c r="G12">
+        <v>847</v>
+      </c>
+      <c r="H12">
+        <v>1019</v>
+      </c>
+      <c r="I12">
+        <v>1536</v>
+      </c>
+      <c r="J12">
+        <v>1211</v>
+      </c>
+      <c r="K12">
+        <v>1174</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1133.3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>379</v>
+      </c>
+      <c r="C13">
+        <v>1753</v>
+      </c>
+      <c r="D13">
+        <v>1800</v>
+      </c>
+      <c r="E13">
+        <v>797</v>
+      </c>
+      <c r="F13">
+        <v>957</v>
+      </c>
+      <c r="G13">
+        <v>1303</v>
+      </c>
+      <c r="H13">
+        <v>1091</v>
+      </c>
+      <c r="I13">
+        <v>579</v>
+      </c>
+      <c r="J13">
+        <v>921</v>
+      </c>
+      <c r="K13">
+        <v>946</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1052.5999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>1706</v>
+      </c>
+      <c r="C14">
+        <v>359</v>
+      </c>
+      <c r="D14">
+        <v>752</v>
+      </c>
+      <c r="E14">
+        <v>1270</v>
+      </c>
+      <c r="F14">
+        <v>1389</v>
+      </c>
+      <c r="G14">
+        <v>889</v>
+      </c>
+      <c r="H14">
+        <v>881</v>
+      </c>
+      <c r="I14">
+        <v>1800</v>
+      </c>
+      <c r="J14">
+        <v>1338</v>
+      </c>
+      <c r="K14">
+        <v>1061</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1144.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>554</v>
+      </c>
+      <c r="C15">
+        <v>1823</v>
+      </c>
+      <c r="D15">
+        <v>1628</v>
+      </c>
+      <c r="E15">
+        <v>917</v>
+      </c>
+      <c r="F15">
+        <v>917</v>
+      </c>
+      <c r="G15">
+        <v>1261</v>
+      </c>
+      <c r="H15">
+        <v>1174</v>
+      </c>
+      <c r="I15">
+        <v>554</v>
+      </c>
+      <c r="J15">
+        <v>954</v>
+      </c>
+      <c r="K15">
+        <v>1271</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1105.3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>1566</v>
+      </c>
+      <c r="C16">
+        <v>468</v>
+      </c>
+      <c r="D16">
+        <v>672</v>
+      </c>
+      <c r="E16">
+        <v>1571</v>
+      </c>
+      <c r="F16">
+        <v>1346</v>
+      </c>
+      <c r="G16">
+        <v>930</v>
+      </c>
+      <c r="H16">
+        <v>1243</v>
+      </c>
+      <c r="I16">
+        <v>1699</v>
+      </c>
+      <c r="J16">
+        <v>1429</v>
+      </c>
+      <c r="K16">
+        <v>891</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1181.5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>549</v>
+      </c>
+      <c r="C17">
+        <v>1597</v>
+      </c>
+      <c r="D17">
+        <v>1613</v>
+      </c>
+      <c r="E17">
+        <v>816</v>
+      </c>
+      <c r="F17">
+        <v>952</v>
+      </c>
+      <c r="G17">
+        <v>1446</v>
+      </c>
+      <c r="H17">
+        <v>1240</v>
+      </c>
+      <c r="I17">
+        <v>538</v>
+      </c>
+      <c r="J17">
+        <v>1106</v>
+      </c>
+      <c r="K17">
+        <v>1357</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1121.4000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>1566</v>
+      </c>
+      <c r="C18">
+        <v>491</v>
+      </c>
+      <c r="D18">
+        <v>531</v>
+      </c>
+      <c r="E18">
+        <v>1282</v>
+      </c>
+      <c r="F18">
+        <v>1275</v>
+      </c>
+      <c r="G18">
+        <v>991</v>
+      </c>
+      <c r="H18">
+        <v>1041</v>
+      </c>
+      <c r="I18">
+        <v>1627</v>
+      </c>
+      <c r="J18">
+        <v>1347</v>
+      </c>
+      <c r="K18">
+        <v>910</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1106.0999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>718</v>
+      </c>
+      <c r="C19">
+        <v>1580</v>
+      </c>
+      <c r="D19">
+        <v>1671</v>
+      </c>
+      <c r="E19">
+        <v>696</v>
+      </c>
+      <c r="F19">
+        <v>1001</v>
+      </c>
+      <c r="G19">
+        <v>1324</v>
+      </c>
+      <c r="H19">
+        <v>1102</v>
+      </c>
+      <c r="I19">
+        <v>517</v>
+      </c>
+      <c r="J19">
+        <v>1019</v>
+      </c>
+      <c r="K19">
+        <v>1175</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1080.3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>467</v>
+      </c>
+      <c r="D20">
+        <v>534</v>
+      </c>
+      <c r="E20">
+        <v>1344</v>
+      </c>
+      <c r="F20">
+        <v>1117</v>
+      </c>
+      <c r="G20">
+        <v>843</v>
+      </c>
+      <c r="H20">
+        <v>1268</v>
+      </c>
+      <c r="I20">
+        <v>1525</v>
+      </c>
+      <c r="J20">
+        <v>1172</v>
+      </c>
+      <c r="K20">
+        <v>1075</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>936.4</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M23" t="s">
         <v>20</v>
       </c>
-      <c r="N23" t="e">
+      <c r="N23">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>1089.615</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/MultiUserIncreaseOc.xlsx
+++ b/documentation/MultiUserIncreaseOc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2128899-602D-414E-B796-BA65F48B53C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D924CE3-E698-7549-B34C-534D6B25878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L1" sqref="L1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,189 +474,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
-        <f t="shared" ref="L1:L11" si="0">AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+      <c r="B1">
+        <v>68</v>
+      </c>
+      <c r="C1">
+        <v>18</v>
+      </c>
+      <c r="D1">
+        <v>22</v>
+      </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1">
+        <v>30</v>
+      </c>
+      <c r="G1">
+        <v>18</v>
+      </c>
+      <c r="H1">
+        <v>27</v>
+      </c>
+      <c r="I1">
+        <v>20</v>
+      </c>
+      <c r="J1">
+        <v>20</v>
+      </c>
+      <c r="K1">
+        <v>17</v>
+      </c>
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>24.9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>19.8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>65</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>38.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>22.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>16.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" ref="L12:L20" si="1">AVERAGE(B12:K12)</f>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>23.1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>22.6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>47</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>21.8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>41</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>21</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M24" t="s">
         <v>20</v>
       </c>
-      <c r="N24" t="e">
+      <c r="N24">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>19.410000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +1269,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,189 +1281,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>722</v>
+      </c>
+      <c r="C1">
+        <v>697</v>
+      </c>
+      <c r="D1">
+        <v>1190</v>
+      </c>
+      <c r="E1">
+        <v>1583</v>
+      </c>
+      <c r="F1">
+        <v>345</v>
+      </c>
+      <c r="G1">
+        <v>147</v>
+      </c>
+      <c r="H1">
+        <v>673</v>
+      </c>
+      <c r="I1">
+        <v>840</v>
+      </c>
+      <c r="J1">
+        <v>1121</v>
+      </c>
+      <c r="K1">
+        <v>646</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>796.4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>950</v>
+      </c>
+      <c r="C2">
+        <v>1081</v>
+      </c>
+      <c r="D2">
+        <v>632</v>
+      </c>
+      <c r="E2">
+        <v>571</v>
+      </c>
+      <c r="F2">
+        <v>1574</v>
+      </c>
+      <c r="G2">
+        <v>1646</v>
+      </c>
+      <c r="H2">
+        <v>1225</v>
+      </c>
+      <c r="I2">
+        <v>1116</v>
+      </c>
+      <c r="J2">
+        <v>762</v>
+      </c>
+      <c r="K2">
+        <v>1199</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>1075.5999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>898</v>
+      </c>
+      <c r="C3">
+        <v>1029</v>
+      </c>
+      <c r="D3">
+        <v>1184</v>
+      </c>
+      <c r="E3">
+        <v>1419</v>
+      </c>
+      <c r="F3">
+        <v>253</v>
+      </c>
+      <c r="G3">
+        <v>132</v>
+      </c>
+      <c r="H3">
+        <v>361</v>
+      </c>
+      <c r="I3">
+        <v>814</v>
+      </c>
+      <c r="J3">
+        <v>948</v>
+      </c>
+      <c r="K3">
+        <v>779</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>781.7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>861</v>
+      </c>
+      <c r="C4">
+        <v>886</v>
+      </c>
+      <c r="D4">
+        <v>697</v>
+      </c>
+      <c r="E4">
+        <v>588</v>
+      </c>
+      <c r="F4">
+        <v>1404</v>
+      </c>
+      <c r="G4">
+        <v>1675</v>
+      </c>
+      <c r="H4">
+        <v>1545</v>
+      </c>
+      <c r="I4">
+        <v>979</v>
+      </c>
+      <c r="J4">
+        <v>995</v>
+      </c>
+      <c r="K4">
+        <v>1325</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1095.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1069</v>
+      </c>
+      <c r="C5">
+        <v>808</v>
+      </c>
+      <c r="D5">
+        <v>870</v>
+      </c>
+      <c r="E5">
+        <v>1397</v>
+      </c>
+      <c r="F5">
+        <v>233</v>
+      </c>
+      <c r="G5">
+        <v>149</v>
+      </c>
+      <c r="H5">
+        <v>257</v>
+      </c>
+      <c r="I5">
+        <v>727</v>
+      </c>
+      <c r="J5">
+        <v>741</v>
+      </c>
+      <c r="K5">
+        <v>715</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>696.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>794</v>
+      </c>
+      <c r="C6">
+        <v>936</v>
+      </c>
+      <c r="D6">
+        <v>755</v>
+      </c>
+      <c r="E6">
+        <v>936</v>
+      </c>
+      <c r="F6">
+        <v>1766</v>
+      </c>
+      <c r="G6">
+        <v>1687</v>
+      </c>
+      <c r="H6">
+        <v>1360</v>
+      </c>
+      <c r="I6">
+        <v>846</v>
+      </c>
+      <c r="J6">
+        <v>1219</v>
+      </c>
+      <c r="K6">
+        <v>918</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1121.7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>890</v>
+      </c>
+      <c r="C7">
+        <v>803</v>
+      </c>
+      <c r="D7">
+        <v>805</v>
+      </c>
+      <c r="E7">
+        <v>1194</v>
+      </c>
+      <c r="F7">
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>168</v>
+      </c>
+      <c r="H7">
+        <v>493</v>
+      </c>
+      <c r="I7">
+        <v>874</v>
+      </c>
+      <c r="J7">
+        <v>913</v>
+      </c>
+      <c r="K7">
+        <v>819</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>705.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>1015</v>
+      </c>
+      <c r="C8">
+        <v>810</v>
+      </c>
+      <c r="D8">
+        <v>980</v>
+      </c>
+      <c r="E8">
+        <v>1162</v>
+      </c>
+      <c r="F8">
+        <v>1632</v>
+      </c>
+      <c r="G8">
+        <v>1454</v>
+      </c>
+      <c r="H8">
+        <v>1587</v>
+      </c>
+      <c r="I8">
+        <v>798</v>
+      </c>
+      <c r="J8">
+        <v>815</v>
+      </c>
+      <c r="K8">
+        <v>1200</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1145.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>664</v>
+      </c>
+      <c r="C9">
+        <v>886</v>
+      </c>
+      <c r="D9">
+        <v>935</v>
+      </c>
+      <c r="E9">
+        <v>764</v>
+      </c>
+      <c r="F9">
+        <v>122</v>
+      </c>
+      <c r="G9">
+        <v>153</v>
+      </c>
+      <c r="H9">
+        <v>487</v>
+      </c>
+      <c r="I9">
+        <v>931</v>
+      </c>
+      <c r="J9">
+        <v>997</v>
+      </c>
+      <c r="K9">
+        <v>819</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>675.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>850</v>
+      </c>
+      <c r="C10">
+        <v>848</v>
+      </c>
+      <c r="D10">
+        <v>784</v>
+      </c>
+      <c r="E10">
+        <v>1146</v>
+      </c>
+      <c r="F10">
+        <v>1709</v>
+      </c>
+      <c r="G10">
+        <v>1548</v>
+      </c>
+      <c r="H10">
+        <v>1435</v>
+      </c>
+      <c r="I10">
+        <v>777</v>
+      </c>
+      <c r="J10">
+        <v>691</v>
+      </c>
+      <c r="K10">
+        <v>1270</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1105.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>577</v>
+      </c>
+      <c r="C11">
+        <v>1058</v>
+      </c>
+      <c r="D11">
+        <v>1046</v>
+      </c>
+      <c r="E11">
+        <v>728</v>
+      </c>
+      <c r="F11">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>225</v>
+      </c>
+      <c r="H11">
+        <v>482</v>
+      </c>
+      <c r="I11">
+        <v>1494</v>
+      </c>
+      <c r="J11">
+        <v>877</v>
+      </c>
+      <c r="K11">
+        <v>700</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>730.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>1083</v>
+      </c>
+      <c r="C12">
+        <v>703</v>
+      </c>
+      <c r="D12">
+        <v>599</v>
+      </c>
+      <c r="E12">
+        <v>1397</v>
+      </c>
+      <c r="F12">
+        <v>1588</v>
+      </c>
+      <c r="G12">
+        <v>1520</v>
+      </c>
+      <c r="H12">
+        <v>1335</v>
+      </c>
+      <c r="I12">
+        <v>581</v>
+      </c>
+      <c r="J12">
+        <v>895</v>
+      </c>
+      <c r="K12">
+        <v>1198</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1089.9000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>715</v>
+      </c>
+      <c r="C13">
+        <v>1039</v>
+      </c>
+      <c r="D13">
+        <v>1004</v>
+      </c>
+      <c r="E13">
+        <v>656</v>
+      </c>
+      <c r="F13">
+        <v>125</v>
+      </c>
+      <c r="G13">
+        <v>307</v>
+      </c>
+      <c r="H13">
+        <v>732</v>
+      </c>
+      <c r="I13">
+        <v>1263</v>
+      </c>
+      <c r="J13">
+        <v>1068</v>
+      </c>
+      <c r="K13">
+        <v>530</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>743.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>1174</v>
+      </c>
+      <c r="C14">
+        <v>731</v>
+      </c>
+      <c r="D14">
+        <v>427</v>
+      </c>
+      <c r="E14">
+        <v>1383</v>
+      </c>
+      <c r="F14">
+        <v>1577</v>
+      </c>
+      <c r="G14">
+        <v>1688</v>
+      </c>
+      <c r="H14">
+        <v>948</v>
+      </c>
+      <c r="I14">
+        <v>628</v>
+      </c>
+      <c r="J14">
+        <v>1235</v>
+      </c>
+      <c r="K14">
+        <v>1228</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1101.9000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>691</v>
+      </c>
+      <c r="C15">
+        <v>836</v>
+      </c>
+      <c r="D15">
+        <v>1357</v>
+      </c>
+      <c r="E15">
+        <v>577</v>
+      </c>
+      <c r="F15">
+        <v>232</v>
+      </c>
+      <c r="G15">
+        <v>380</v>
+      </c>
+      <c r="H15">
+        <v>734</v>
+      </c>
+      <c r="I15">
+        <v>1306</v>
+      </c>
+      <c r="J15">
+        <v>780</v>
+      </c>
+      <c r="K15">
+        <v>545</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>743.8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>1155</v>
+      </c>
+      <c r="C16">
+        <v>827</v>
+      </c>
+      <c r="D16">
+        <v>517</v>
+      </c>
+      <c r="E16">
+        <v>1236</v>
+      </c>
+      <c r="F16">
+        <v>1518</v>
+      </c>
+      <c r="G16">
+        <v>1540</v>
+      </c>
+      <c r="H16">
+        <v>1109</v>
+      </c>
+      <c r="I16">
+        <v>728</v>
+      </c>
+      <c r="J16">
+        <v>1111</v>
+      </c>
+      <c r="K16">
+        <v>1223</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1096.4000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>1015</v>
+      </c>
+      <c r="C17">
+        <v>1001</v>
+      </c>
+      <c r="D17">
+        <v>1423</v>
+      </c>
+      <c r="E17">
+        <v>722</v>
+      </c>
+      <c r="F17">
+        <v>259</v>
+      </c>
+      <c r="G17">
+        <v>326</v>
+      </c>
+      <c r="H17">
+        <v>921</v>
+      </c>
+      <c r="I17">
+        <v>1039</v>
+      </c>
+      <c r="J17">
+        <v>819</v>
+      </c>
+      <c r="K17">
+        <v>552</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>807.7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>971</v>
+      </c>
+      <c r="C18">
+        <v>817</v>
+      </c>
+      <c r="D18">
+        <v>487</v>
+      </c>
+      <c r="E18">
+        <v>971</v>
+      </c>
+      <c r="F18">
+        <v>1620</v>
+      </c>
+      <c r="G18">
+        <v>1144</v>
+      </c>
+      <c r="H18">
+        <v>1062</v>
+      </c>
+      <c r="I18">
+        <v>793</v>
+      </c>
+      <c r="J18">
+        <v>943</v>
+      </c>
+      <c r="K18">
+        <v>1299</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1010.7</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>1107</v>
+      </c>
+      <c r="C19">
+        <v>1124</v>
+      </c>
+      <c r="D19">
+        <v>1492</v>
+      </c>
+      <c r="E19">
+        <v>816</v>
+      </c>
+      <c r="F19">
+        <v>271</v>
+      </c>
+      <c r="G19">
+        <v>529</v>
+      </c>
+      <c r="H19">
+        <v>1106</v>
+      </c>
+      <c r="I19">
+        <v>1222</v>
+      </c>
+      <c r="J19">
+        <v>796</v>
+      </c>
+      <c r="K19">
+        <v>530</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>899.3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>998</v>
+      </c>
+      <c r="C20">
+        <v>510</v>
+      </c>
+      <c r="D20">
+        <v>461</v>
+      </c>
+      <c r="E20">
+        <v>830</v>
+      </c>
+      <c r="F20">
+        <v>1648</v>
+      </c>
+      <c r="G20">
+        <v>1328</v>
+      </c>
+      <c r="H20">
+        <v>1029</v>
+      </c>
+      <c r="I20">
+        <v>701</v>
+      </c>
+      <c r="J20">
+        <v>1044</v>
+      </c>
+      <c r="K20">
+        <v>1239</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>978.8</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
         <v>20</v>
       </c>
-      <c r="M24" t="e">
+      <c r="M24">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>920.11999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +2076,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L1" sqref="L1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,189 +2088,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>37</v>
+      </c>
+      <c r="C1">
+        <v>17</v>
+      </c>
+      <c r="D1">
+        <v>13</v>
+      </c>
+      <c r="E1">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>15</v>
+      </c>
+      <c r="G1">
+        <v>49</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f>AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>87</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>29.4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" ref="L3:L20" si="0">AVERAGE(B3:K3)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>25.1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>26.3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>37</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>14.3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>13.1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <v>23</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>15.6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>76</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>28.7</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>38</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>21.8</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>66</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>21.2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M24" t="s">
         <v>20</v>
       </c>
-      <c r="N24" t="e">
+      <c r="N24">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>20.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +2883,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,189 +2895,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>17</v>
+      </c>
+      <c r="E1">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>18</v>
+      </c>
+      <c r="I1">
+        <v>46</v>
+      </c>
+      <c r="J1">
+        <v>15</v>
+      </c>
+      <c r="K1">
+        <v>12</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>129</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B3:K3)</f>
+        <v>21.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>26.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>61</v>
+      </c>
+      <c r="I5">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>21.9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>14.7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>34</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>79</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>21.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>28.1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>51</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>21.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>61</v>
+      </c>
+      <c r="I15">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>83</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>24.3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>26.7</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>22.9</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M26" t="s">
         <v>20</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N26">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>23.439999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +3690,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L1" sqref="L1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,189 +3702,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>32</v>
+      </c>
+      <c r="F1">
+        <v>39</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>17</v>
+      </c>
+      <c r="I1">
+        <v>47</v>
+      </c>
+      <c r="J1">
+        <v>11</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f>AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>28.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" ref="L3:L20" si="0">AVERAGE(B3:K3)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>152</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>99</v>
+      </c>
+      <c r="K3">
+        <v>79</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>57.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>32.700000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>86</v>
+      </c>
+      <c r="K7">
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>31.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>37.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>82</v>
+      </c>
+      <c r="H10">
+        <v>86</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>78</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>27.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>21.7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>26.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>38</v>
+      </c>
+      <c r="K14">
+        <v>42</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>25.8</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>37</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>21.2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>94</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>32.700000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>69</v>
+      </c>
+      <c r="K17">
+        <v>28</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>37</v>
+      </c>
+      <c r="J18">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>46</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>29.4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>63</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>28</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>29.3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L25" t="s">
         <v>20</v>
       </c>
-      <c r="M25" t="e">
+      <c r="M25">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>31.204999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -1497,7 +4497,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,189 +4509,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>25</v>
+      </c>
+      <c r="C1">
+        <v>19</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>17</v>
+      </c>
+      <c r="I1">
+        <v>20</v>
+      </c>
+      <c r="J1">
+        <v>14</v>
+      </c>
+      <c r="K1">
+        <v>17</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
-        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>66</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>44</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>26.4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <v>83</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B3:K3)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>34.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>99</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>53</v>
+      </c>
+      <c r="J5">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>73</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>52.9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>148</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>72</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>44.8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>69</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>85</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>43.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>85</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>24.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>39</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>133</v>
+      </c>
+      <c r="G10">
+        <v>57</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>29</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>35.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>21.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>51</v>
+      </c>
+      <c r="J13">
+        <v>152</v>
+      </c>
+      <c r="K13">
+        <v>121</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>47.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>98</v>
+      </c>
+      <c r="H14">
+        <v>82</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>62</v>
+      </c>
+      <c r="K14">
+        <v>141</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>61.6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>102</v>
+      </c>
+      <c r="I15">
+        <v>103</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>62</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>47.7</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>54</v>
+      </c>
+      <c r="K16">
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>33</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>42</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>93</v>
+      </c>
+      <c r="J18">
+        <v>108</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>41.1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>54</v>
+      </c>
+      <c r="J19">
+        <v>59</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>32.6</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>132</v>
+      </c>
+      <c r="E20">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>69</v>
+      </c>
+      <c r="K20">
+        <v>42</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M26" t="s">
         <v>20</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N26">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>35.865000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +5304,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L1" sqref="L1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,189 +5316,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>77</v>
+      </c>
+      <c r="C1">
+        <v>47</v>
+      </c>
+      <c r="D1">
+        <v>31</v>
+      </c>
+      <c r="E1">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <v>58</v>
+      </c>
+      <c r="G1">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>68</v>
+      </c>
+      <c r="I1">
+        <v>28</v>
+      </c>
+      <c r="J1">
+        <v>51</v>
+      </c>
+      <c r="K1">
+        <v>36</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>81</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <v>119</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>45</v>
+      </c>
+      <c r="K2">
+        <v>38</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>97</v>
+      </c>
+      <c r="G3">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>161</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>84</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>46.8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>202</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>136</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>81.8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>133</v>
+      </c>
+      <c r="C6">
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>129</v>
+      </c>
+      <c r="J6">
+        <v>64</v>
+      </c>
+      <c r="K6">
+        <v>61</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>76.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>174</v>
+      </c>
+      <c r="C7">
+        <v>178</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>165</v>
+      </c>
+      <c r="G7">
+        <v>155</v>
+      </c>
+      <c r="H7">
+        <v>106</v>
+      </c>
+      <c r="I7">
+        <v>52</v>
+      </c>
+      <c r="J7">
+        <v>66</v>
+      </c>
+      <c r="K7">
+        <v>83</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>104.9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>127</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>73</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>146</v>
+      </c>
+      <c r="H8">
+        <v>180</v>
+      </c>
+      <c r="I8">
+        <v>239</v>
+      </c>
+      <c r="J8">
+        <v>58</v>
+      </c>
+      <c r="K8">
+        <v>66</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>97.6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>207</v>
+      </c>
+      <c r="G9">
+        <v>118</v>
+      </c>
+      <c r="H9">
+        <v>89</v>
+      </c>
+      <c r="I9">
+        <v>111</v>
+      </c>
+      <c r="J9">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>33</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>93.9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>164</v>
+      </c>
+      <c r="G10">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>128</v>
+      </c>
+      <c r="J10">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>79.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>213</v>
+      </c>
+      <c r="F11">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>95</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>43</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>190</v>
+      </c>
+      <c r="F12">
+        <v>67</v>
+      </c>
+      <c r="G12">
+        <v>198</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>158</v>
+      </c>
+      <c r="J12">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>94</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>46.1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>188</v>
+      </c>
+      <c r="J14">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>56</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>58.7</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>173</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>162</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>74</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+      <c r="E16">
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>31</v>
+      </c>
+      <c r="I16">
+        <v>260</v>
+      </c>
+      <c r="J16">
+        <v>211</v>
+      </c>
+      <c r="K16">
+        <v>57</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>107.2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>195</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>266</v>
+      </c>
+      <c r="J17">
+        <v>147</v>
+      </c>
+      <c r="K17">
+        <v>98</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>89.1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>166</v>
+      </c>
+      <c r="E18">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>62</v>
+      </c>
+      <c r="H18">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>32</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>50.6</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>94</v>
+      </c>
+      <c r="F19">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <v>63</v>
+      </c>
+      <c r="H19">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>122</v>
+      </c>
+      <c r="K19">
+        <v>144</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>69.5</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>93</v>
+      </c>
+      <c r="C20">
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>81</v>
+      </c>
+      <c r="H20">
+        <v>59</v>
+      </c>
+      <c r="I20">
+        <v>55</v>
+      </c>
+      <c r="J20">
+        <v>120</v>
+      </c>
+      <c r="K20">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M26" t="s">
         <v>20</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N26">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>71.11999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +6111,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L1" sqref="L1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1923,189 +6123,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>21</v>
+      </c>
+      <c r="C1">
+        <v>155</v>
+      </c>
+      <c r="D1">
+        <v>17</v>
+      </c>
+      <c r="E1">
+        <v>80</v>
+      </c>
+      <c r="F1">
+        <v>19</v>
+      </c>
+      <c r="G1">
+        <v>116</v>
+      </c>
+      <c r="H1">
+        <v>318</v>
+      </c>
+      <c r="I1">
+        <v>42</v>
+      </c>
+      <c r="J1">
+        <v>79</v>
+      </c>
+      <c r="K1">
+        <v>327</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>117.4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>144</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>125</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>272</v>
+      </c>
+      <c r="H2">
+        <v>343</v>
+      </c>
+      <c r="I2">
+        <v>64</v>
+      </c>
+      <c r="J2">
+        <v>165</v>
+      </c>
+      <c r="K2">
+        <v>255</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>153</v>
+      </c>
+      <c r="D3">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>134</v>
+      </c>
+      <c r="F3">
+        <v>76</v>
+      </c>
+      <c r="G3">
+        <v>161</v>
+      </c>
+      <c r="H3">
+        <v>197</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>244</v>
+      </c>
+      <c r="K3">
+        <v>142</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>126.9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>94</v>
+      </c>
+      <c r="F4">
+        <v>69</v>
+      </c>
+      <c r="G4">
+        <v>139</v>
+      </c>
+      <c r="H4">
+        <v>185</v>
+      </c>
+      <c r="I4">
+        <v>192</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>94.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>158</v>
+      </c>
+      <c r="D5">
+        <v>194</v>
+      </c>
+      <c r="E5">
+        <v>157</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>147</v>
+      </c>
+      <c r="H5">
+        <v>174</v>
+      </c>
+      <c r="I5">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>436</v>
+      </c>
+      <c r="K5">
+        <v>385</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>184.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>184</v>
+      </c>
+      <c r="H6">
+        <v>222</v>
+      </c>
+      <c r="I6">
+        <v>234</v>
+      </c>
+      <c r="J6">
+        <v>288</v>
+      </c>
+      <c r="K6">
+        <v>506</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>143</v>
+      </c>
+      <c r="C7">
+        <v>162</v>
+      </c>
+      <c r="D7">
+        <v>151</v>
+      </c>
+      <c r="E7">
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <v>142</v>
+      </c>
+      <c r="G7">
+        <v>131</v>
+      </c>
+      <c r="H7">
+        <v>153</v>
+      </c>
+      <c r="I7">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>349</v>
+      </c>
+      <c r="K7">
+        <v>412</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>180.6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>138</v>
+      </c>
+      <c r="G8">
+        <v>251</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>382</v>
+      </c>
+      <c r="J8">
+        <v>195</v>
+      </c>
+      <c r="K8">
+        <v>287</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>144.9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>231</v>
+      </c>
+      <c r="C9">
+        <v>266</v>
+      </c>
+      <c r="D9">
+        <v>157</v>
+      </c>
+      <c r="E9">
+        <v>168</v>
+      </c>
+      <c r="F9">
+        <v>130</v>
+      </c>
+      <c r="G9">
+        <v>141</v>
+      </c>
+      <c r="H9">
+        <v>398</v>
+      </c>
+      <c r="I9">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>209</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>178.3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>89</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>168</v>
+      </c>
+      <c r="G10">
+        <v>224</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>319</v>
+      </c>
+      <c r="J10">
+        <v>448</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>134.80000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>507</v>
+      </c>
+      <c r="C11">
+        <v>308</v>
+      </c>
+      <c r="D11">
+        <v>159</v>
+      </c>
+      <c r="E11">
+        <v>105</v>
+      </c>
+      <c r="F11">
+        <v>196</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>601</v>
+      </c>
+      <c r="I11">
+        <v>249</v>
+      </c>
+      <c r="J11">
+        <v>556</v>
+      </c>
+      <c r="K11">
+        <v>233</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>300.39999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>87</v>
+      </c>
+      <c r="G12">
+        <v>212</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>172</v>
+      </c>
+      <c r="J12">
+        <v>343</v>
+      </c>
+      <c r="K12">
+        <v>242</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>252</v>
+      </c>
+      <c r="C13">
+        <v>368</v>
+      </c>
+      <c r="D13">
+        <v>224</v>
+      </c>
+      <c r="E13">
+        <v>140</v>
+      </c>
+      <c r="F13">
+        <v>175</v>
+      </c>
+      <c r="G13">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>478</v>
+      </c>
+      <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>72</v>
+      </c>
+      <c r="K13">
+        <v>349</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>216.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>52</v>
+      </c>
+      <c r="G14">
+        <v>241</v>
+      </c>
+      <c r="H14">
+        <v>378</v>
+      </c>
+      <c r="I14">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>360</v>
+      </c>
+      <c r="K14">
+        <v>463</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>179.9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>294</v>
+      </c>
+      <c r="C15">
+        <v>302</v>
+      </c>
+      <c r="D15">
+        <v>293</v>
+      </c>
+      <c r="E15">
+        <v>205</v>
+      </c>
+      <c r="F15">
+        <v>281</v>
+      </c>
+      <c r="G15">
+        <v>348</v>
+      </c>
+      <c r="H15">
+        <v>306</v>
+      </c>
+      <c r="I15">
+        <v>101</v>
+      </c>
+      <c r="J15">
+        <v>66</v>
+      </c>
+      <c r="K15">
+        <v>339</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>253.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>330</v>
+      </c>
+      <c r="H16">
+        <v>187</v>
+      </c>
+      <c r="I16">
+        <v>149</v>
+      </c>
+      <c r="J16">
+        <v>482</v>
+      </c>
+      <c r="K16">
+        <v>222</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>202</v>
+      </c>
+      <c r="C17">
+        <v>242</v>
+      </c>
+      <c r="D17">
+        <v>293</v>
+      </c>
+      <c r="E17">
+        <v>269</v>
+      </c>
+      <c r="F17">
+        <v>418</v>
+      </c>
+      <c r="G17">
+        <v>231</v>
+      </c>
+      <c r="H17">
+        <v>68</v>
+      </c>
+      <c r="I17">
+        <v>101</v>
+      </c>
+      <c r="J17">
+        <v>71</v>
+      </c>
+      <c r="K17">
+        <v>119</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>201.4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>279</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>288</v>
+      </c>
+      <c r="G18">
+        <v>140</v>
+      </c>
+      <c r="H18">
+        <v>111</v>
+      </c>
+      <c r="I18">
+        <v>185</v>
+      </c>
+      <c r="J18">
+        <v>402</v>
+      </c>
+      <c r="K18">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>163.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>114</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>225</v>
+      </c>
+      <c r="F19">
+        <v>92</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>59</v>
+      </c>
+      <c r="I19">
+        <v>148</v>
+      </c>
+      <c r="J19">
+        <v>48</v>
+      </c>
+      <c r="K19">
+        <v>196</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>105.5</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>301</v>
+      </c>
+      <c r="E20">
+        <v>137</v>
+      </c>
+      <c r="F20">
+        <v>133</v>
+      </c>
+      <c r="G20">
+        <v>91</v>
+      </c>
+      <c r="H20">
+        <v>175</v>
+      </c>
+      <c r="I20">
+        <v>327</v>
+      </c>
+      <c r="J20">
+        <v>170</v>
+      </c>
+      <c r="K20">
+        <v>152</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>159.5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
         <v>20</v>
       </c>
-      <c r="M29" t="e">
+      <c r="M29">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>168.65</v>
       </c>
     </row>
   </sheetData>
@@ -2118,7 +6918,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L1" sqref="L1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2130,189 +6930,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>387</v>
+      </c>
+      <c r="C1">
+        <v>176</v>
+      </c>
+      <c r="D1">
+        <v>913</v>
+      </c>
+      <c r="E1">
+        <v>628</v>
+      </c>
+      <c r="F1">
+        <v>112</v>
+      </c>
+      <c r="G1">
+        <v>187</v>
+      </c>
+      <c r="H1">
+        <v>468</v>
+      </c>
+      <c r="I1">
+        <v>429</v>
+      </c>
+      <c r="J1">
+        <v>253</v>
+      </c>
+      <c r="K1">
+        <v>585</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>413.8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>246</v>
+      </c>
+      <c r="C2">
+        <v>638</v>
+      </c>
+      <c r="D2">
+        <v>954</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>828</v>
+      </c>
+      <c r="G2">
+        <v>314</v>
+      </c>
+      <c r="H2">
+        <v>259</v>
+      </c>
+      <c r="I2">
+        <v>221</v>
+      </c>
+      <c r="J2">
+        <v>641</v>
+      </c>
+      <c r="K2">
+        <v>199</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>432.6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>477</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>1025</v>
+      </c>
+      <c r="E3">
+        <v>790</v>
+      </c>
+      <c r="F3">
+        <v>104</v>
+      </c>
+      <c r="G3">
+        <v>263</v>
+      </c>
+      <c r="H3">
+        <v>646</v>
+      </c>
+      <c r="I3">
+        <v>640</v>
+      </c>
+      <c r="J3">
+        <v>222</v>
+      </c>
+      <c r="K3">
+        <v>501</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>483.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>259</v>
+      </c>
+      <c r="C4">
+        <v>519</v>
+      </c>
+      <c r="D4">
+        <v>1087</v>
+      </c>
+      <c r="E4">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>875</v>
+      </c>
+      <c r="G4">
+        <v>430</v>
+      </c>
+      <c r="H4">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>97</v>
+      </c>
+      <c r="J4">
+        <v>728</v>
+      </c>
+      <c r="K4">
+        <v>310</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>444.6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>635</v>
+      </c>
+      <c r="C5">
+        <v>243</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>1039</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
+        <v>468</v>
+      </c>
+      <c r="H5">
+        <v>875</v>
+      </c>
+      <c r="I5">
+        <v>769</v>
+      </c>
+      <c r="J5">
+        <v>112</v>
+      </c>
+      <c r="K5">
+        <v>497</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>486.8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>360</v>
+      </c>
+      <c r="C6">
+        <v>450</v>
+      </c>
+      <c r="D6">
+        <v>761</v>
+      </c>
+      <c r="E6">
+        <v>1017</v>
+      </c>
+      <c r="F6">
+        <v>816</v>
+      </c>
+      <c r="G6">
+        <v>522</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>98</v>
+      </c>
+      <c r="J6">
+        <v>869</v>
+      </c>
+      <c r="K6">
+        <v>336</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>532.9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>596</v>
+      </c>
+      <c r="C7">
+        <v>192</v>
+      </c>
+      <c r="D7">
+        <v>129</v>
+      </c>
+      <c r="E7">
+        <v>849</v>
+      </c>
+      <c r="F7">
+        <v>121</v>
+      </c>
+      <c r="G7">
+        <v>541</v>
+      </c>
+      <c r="H7">
+        <v>793</v>
+      </c>
+      <c r="I7">
+        <v>844</v>
+      </c>
+      <c r="J7">
+        <v>137</v>
+      </c>
+      <c r="K7">
+        <v>527</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>472.9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>401</v>
+      </c>
+      <c r="C8">
+        <v>521</v>
+      </c>
+      <c r="D8">
+        <v>657</v>
+      </c>
+      <c r="E8">
+        <v>693</v>
+      </c>
+      <c r="F8">
+        <v>718</v>
+      </c>
+      <c r="G8">
+        <v>547</v>
+      </c>
+      <c r="H8">
+        <v>89</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <v>880</v>
+      </c>
+      <c r="K8">
+        <v>246</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>516</v>
+      </c>
+      <c r="C9">
+        <v>248</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>764</v>
+      </c>
+      <c r="F9">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>341</v>
+      </c>
+      <c r="H9">
+        <v>922</v>
+      </c>
+      <c r="I9">
+        <v>895</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>446</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>426.7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>258</v>
+      </c>
+      <c r="C10">
+        <v>488</v>
+      </c>
+      <c r="D10">
+        <v>467</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>720</v>
+      </c>
+      <c r="G10">
+        <v>431</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>91</v>
+      </c>
+      <c r="J10">
+        <v>789</v>
+      </c>
+      <c r="K10">
+        <v>273</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>357.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>518</v>
+      </c>
+      <c r="C11">
+        <v>235</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>1061</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>194</v>
+      </c>
+      <c r="H11">
+        <v>889</v>
+      </c>
+      <c r="I11">
+        <v>629</v>
+      </c>
+      <c r="J11">
+        <v>68</v>
+      </c>
+      <c r="K11">
+        <v>513</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>420.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>240</v>
+      </c>
+      <c r="C12">
+        <v>543</v>
+      </c>
+      <c r="D12">
+        <v>533</v>
+      </c>
+      <c r="E12">
+        <v>847</v>
+      </c>
+      <c r="F12">
+        <v>751</v>
+      </c>
+      <c r="G12">
+        <v>386</v>
+      </c>
+      <c r="H12">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>94</v>
+      </c>
+      <c r="J12">
+        <v>914</v>
+      </c>
+      <c r="K12">
+        <v>369</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>471.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>445</v>
+      </c>
+      <c r="C13">
+        <v>195</v>
+      </c>
+      <c r="D13">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>681</v>
+      </c>
+      <c r="G13">
+        <v>188</v>
+      </c>
+      <c r="H13">
+        <v>773</v>
+      </c>
+      <c r="I13">
+        <v>567</v>
+      </c>
+      <c r="J13">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <v>473</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>351.2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>253</v>
+      </c>
+      <c r="C14">
+        <v>541</v>
+      </c>
+      <c r="D14">
+        <v>564</v>
+      </c>
+      <c r="E14">
+        <v>665</v>
+      </c>
+      <c r="F14">
+        <v>99</v>
+      </c>
+      <c r="G14">
+        <v>439</v>
+      </c>
+      <c r="H14">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>144</v>
+      </c>
+      <c r="J14">
+        <v>809</v>
+      </c>
+      <c r="K14">
+        <v>431</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>402.2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>544</v>
+      </c>
+      <c r="C15">
+        <v>215</v>
+      </c>
+      <c r="D15">
+        <v>123</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>946</v>
+      </c>
+      <c r="G15">
+        <v>207</v>
+      </c>
+      <c r="H15">
+        <v>709</v>
+      </c>
+      <c r="I15">
+        <v>624</v>
+      </c>
+      <c r="J15">
+        <v>903</v>
+      </c>
+      <c r="K15">
+        <v>746</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>504.8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>192</v>
+      </c>
+      <c r="C16">
+        <v>578</v>
+      </c>
+      <c r="D16">
+        <v>485</v>
+      </c>
+      <c r="E16">
+        <v>623</v>
+      </c>
+      <c r="F16">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>356</v>
+      </c>
+      <c r="H16">
+        <v>335</v>
+      </c>
+      <c r="I16">
+        <v>136</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>329</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>310.89999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>589</v>
+      </c>
+      <c r="C17">
+        <v>308</v>
+      </c>
+      <c r="D17">
+        <v>113</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>888</v>
+      </c>
+      <c r="G17">
+        <v>541</v>
+      </c>
+      <c r="H17">
+        <v>552</v>
+      </c>
+      <c r="I17">
+        <v>667</v>
+      </c>
+      <c r="J17">
+        <v>1010</v>
+      </c>
+      <c r="K17">
+        <v>656</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>148</v>
+      </c>
+      <c r="C18">
+        <v>370</v>
+      </c>
+      <c r="D18">
+        <v>439</v>
+      </c>
+      <c r="E18">
+        <v>948</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <v>279</v>
+      </c>
+      <c r="H18">
+        <v>405</v>
+      </c>
+      <c r="I18">
+        <v>255</v>
+      </c>
+      <c r="J18">
+        <v>873</v>
+      </c>
+      <c r="K18">
+        <v>310</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>406.4</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>564</v>
+      </c>
+      <c r="C19">
+        <v>310</v>
+      </c>
+      <c r="D19">
+        <v>246</v>
+      </c>
+      <c r="E19">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>664</v>
+      </c>
+      <c r="G19">
+        <v>527</v>
+      </c>
+      <c r="H19">
+        <v>654</v>
+      </c>
+      <c r="I19">
+        <v>626</v>
+      </c>
+      <c r="J19">
+        <v>853</v>
+      </c>
+      <c r="K19">
+        <v>617</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>511.9</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>193</v>
+      </c>
+      <c r="C20">
+        <v>401</v>
+      </c>
+      <c r="D20">
+        <v>533</v>
+      </c>
+      <c r="E20">
+        <v>767</v>
+      </c>
+      <c r="F20">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>480</v>
+      </c>
+      <c r="H20">
+        <v>350</v>
+      </c>
+      <c r="I20">
+        <v>212</v>
+      </c>
+      <c r="J20">
+        <v>58</v>
+      </c>
+      <c r="K20">
+        <v>281</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M28" t="s">
         <v>20</v>
       </c>
-      <c r="N28" t="e">
+      <c r="N28">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>439.09999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +7725,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K20"/>
+      <selection activeCell="L1" sqref="L1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2337,189 +7737,789 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="e">
+      <c r="B1">
+        <v>917</v>
+      </c>
+      <c r="C1">
+        <v>377</v>
+      </c>
+      <c r="D1">
+        <v>1130</v>
+      </c>
+      <c r="E1">
+        <v>798</v>
+      </c>
+      <c r="F1">
+        <v>648</v>
+      </c>
+      <c r="G1">
+        <v>840</v>
+      </c>
+      <c r="H1">
+        <v>314</v>
+      </c>
+      <c r="I1">
+        <v>591</v>
+      </c>
+      <c r="J1">
+        <v>1614</v>
+      </c>
+      <c r="K1">
+        <v>1292</v>
+      </c>
+      <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>#DIV/0!</v>
+        <v>852.1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <v>193</v>
+      </c>
+      <c r="C2">
+        <v>758</v>
+      </c>
+      <c r="D2">
+        <v>130</v>
+      </c>
+      <c r="E2">
+        <v>382</v>
+      </c>
+      <c r="F2">
+        <v>783</v>
+      </c>
+      <c r="G2">
+        <v>412</v>
+      </c>
+      <c r="H2">
+        <v>1029</v>
+      </c>
+      <c r="I2">
+        <v>524</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>953</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
-        <v>#DIV/0!</v>
+        <v>518.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <v>1149</v>
+      </c>
+      <c r="C3">
+        <v>348</v>
+      </c>
+      <c r="D3">
+        <v>1499</v>
+      </c>
+      <c r="E3">
+        <v>824</v>
+      </c>
+      <c r="F3">
+        <v>903</v>
+      </c>
+      <c r="G3">
+        <v>946</v>
+      </c>
+      <c r="H3">
+        <v>338</v>
+      </c>
+      <c r="I3">
+        <v>621</v>
+      </c>
+      <c r="J3">
+        <v>1692</v>
+      </c>
+      <c r="K3">
+        <v>47</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>836.7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>239</v>
+      </c>
+      <c r="C4">
+        <v>811</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>440</v>
+      </c>
+      <c r="F4">
+        <v>564</v>
+      </c>
+      <c r="G4">
+        <v>398</v>
+      </c>
+      <c r="H4">
+        <v>1014</v>
+      </c>
+      <c r="I4">
+        <v>542</v>
+      </c>
+      <c r="J4">
+        <v>1417</v>
+      </c>
+      <c r="K4">
+        <v>931</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>642.6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>1158</v>
+      </c>
+      <c r="C5">
+        <v>289</v>
+      </c>
+      <c r="D5">
+        <v>1343</v>
+      </c>
+      <c r="E5">
+        <v>717</v>
+      </c>
+      <c r="F5">
+        <v>753</v>
+      </c>
+      <c r="G5">
+        <v>1075</v>
+      </c>
+      <c r="H5">
+        <v>268</v>
+      </c>
+      <c r="I5">
+        <v>504</v>
+      </c>
+      <c r="J5">
+        <v>79</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>624.4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>305</v>
+      </c>
+      <c r="C6">
+        <v>898</v>
+      </c>
+      <c r="D6">
+        <v>106</v>
+      </c>
+      <c r="E6">
+        <v>345</v>
+      </c>
+      <c r="F6">
+        <v>504</v>
+      </c>
+      <c r="G6">
+        <v>264</v>
+      </c>
+      <c r="H6">
+        <v>837</v>
+      </c>
+      <c r="I6">
+        <v>653</v>
+      </c>
+      <c r="J6">
+        <v>1273</v>
+      </c>
+      <c r="K6">
+        <v>1399</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>658.4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>732</v>
+      </c>
+      <c r="C7">
+        <v>376</v>
+      </c>
+      <c r="D7">
+        <v>1265</v>
+      </c>
+      <c r="E7">
+        <v>800</v>
+      </c>
+      <c r="F7">
+        <v>773</v>
+      </c>
+      <c r="G7">
+        <v>877</v>
+      </c>
+      <c r="H7">
+        <v>324</v>
+      </c>
+      <c r="I7">
+        <v>552</v>
+      </c>
+      <c r="J7">
+        <v>150</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>586.79999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>367</v>
+      </c>
+      <c r="C8">
+        <v>972</v>
+      </c>
+      <c r="D8">
+        <v>141</v>
+      </c>
+      <c r="E8">
+        <v>373</v>
+      </c>
+      <c r="F8">
+        <v>638</v>
+      </c>
+      <c r="G8">
+        <v>312</v>
+      </c>
+      <c r="H8">
+        <v>900</v>
+      </c>
+      <c r="I8">
+        <v>618</v>
+      </c>
+      <c r="J8">
+        <v>1171</v>
+      </c>
+      <c r="K8">
+        <v>1425</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>691.7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>754</v>
+      </c>
+      <c r="C9">
+        <v>361</v>
+      </c>
+      <c r="D9">
+        <v>856</v>
+      </c>
+      <c r="E9">
+        <v>1133</v>
+      </c>
+      <c r="F9">
+        <v>743</v>
+      </c>
+      <c r="G9">
+        <v>857</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9">
+        <v>575</v>
+      </c>
+      <c r="J9">
+        <v>133</v>
+      </c>
+      <c r="K9">
+        <v>52</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>403</v>
+      </c>
+      <c r="C10">
+        <v>1004</v>
+      </c>
+      <c r="D10">
+        <v>199</v>
+      </c>
+      <c r="E10">
+        <v>379</v>
+      </c>
+      <c r="F10">
+        <v>692</v>
+      </c>
+      <c r="G10">
+        <v>330</v>
+      </c>
+      <c r="H10">
+        <v>1139</v>
+      </c>
+      <c r="I10">
+        <v>656</v>
+      </c>
+      <c r="J10">
+        <v>1249</v>
+      </c>
+      <c r="K10">
+        <v>1410</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>746.1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>916</v>
+      </c>
+      <c r="C11">
+        <v>390</v>
+      </c>
+      <c r="D11">
+        <v>948</v>
+      </c>
+      <c r="E11">
+        <v>1071</v>
+      </c>
+      <c r="F11">
+        <v>729</v>
+      </c>
+      <c r="G11">
+        <v>755</v>
+      </c>
+      <c r="H11">
+        <v>337</v>
+      </c>
+      <c r="I11">
+        <v>713</v>
+      </c>
+      <c r="J11">
+        <v>73</v>
+      </c>
+      <c r="K11">
+        <v>81</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>601.29999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>440</v>
+      </c>
+      <c r="C12">
+        <v>1034</v>
+      </c>
+      <c r="D12">
+        <v>225</v>
+      </c>
+      <c r="E12">
+        <v>301</v>
+      </c>
+      <c r="F12">
+        <v>557</v>
+      </c>
+      <c r="G12">
+        <v>281</v>
+      </c>
+      <c r="H12">
+        <v>1216</v>
+      </c>
+      <c r="I12">
+        <v>675</v>
+      </c>
+      <c r="J12">
+        <v>1085</v>
+      </c>
+      <c r="K12">
+        <v>1409</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>722.3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>961</v>
+      </c>
+      <c r="C13">
+        <v>386</v>
+      </c>
+      <c r="D13">
+        <v>1072</v>
+      </c>
+      <c r="E13">
+        <v>943</v>
+      </c>
+      <c r="F13">
+        <v>717</v>
+      </c>
+      <c r="G13">
+        <v>879</v>
+      </c>
+      <c r="H13">
+        <v>197</v>
+      </c>
+      <c r="I13">
+        <v>779</v>
+      </c>
+      <c r="J13">
+        <v>132</v>
+      </c>
+      <c r="K13">
+        <v>1419</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>748.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>288</v>
+      </c>
+      <c r="C14">
+        <v>1132</v>
+      </c>
+      <c r="D14">
+        <v>242</v>
+      </c>
+      <c r="E14">
+        <v>329</v>
+      </c>
+      <c r="F14">
+        <v>597</v>
+      </c>
+      <c r="G14">
+        <v>286</v>
+      </c>
+      <c r="H14">
+        <v>1189</v>
+      </c>
+      <c r="I14">
+        <v>674</v>
+      </c>
+      <c r="J14">
+        <v>1071</v>
+      </c>
+      <c r="K14">
+        <v>1261</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>706.9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>1099</v>
+      </c>
+      <c r="C15">
+        <v>238</v>
+      </c>
+      <c r="D15">
+        <v>1081</v>
+      </c>
+      <c r="E15">
+        <v>930</v>
+      </c>
+      <c r="F15">
+        <v>489</v>
+      </c>
+      <c r="G15">
+        <v>1235</v>
+      </c>
+      <c r="H15">
+        <v>134</v>
+      </c>
+      <c r="I15">
+        <v>658</v>
+      </c>
+      <c r="J15">
+        <v>315</v>
+      </c>
+      <c r="K15">
+        <v>59</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>623.79999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>353</v>
+      </c>
+      <c r="C16">
+        <v>1166</v>
+      </c>
+      <c r="D16">
+        <v>277</v>
+      </c>
+      <c r="E16">
+        <v>318</v>
+      </c>
+      <c r="F16">
+        <v>905</v>
+      </c>
+      <c r="G16">
+        <v>267</v>
+      </c>
+      <c r="H16">
+        <v>979</v>
+      </c>
+      <c r="I16">
+        <v>588</v>
+      </c>
+      <c r="J16">
+        <v>1151</v>
+      </c>
+      <c r="K16">
+        <v>1144</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>714.8</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>1017</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>1205</v>
+      </c>
+      <c r="E17">
+        <v>911</v>
+      </c>
+      <c r="F17">
+        <v>444</v>
+      </c>
+      <c r="G17">
+        <v>1261</v>
+      </c>
+      <c r="H17">
+        <v>176</v>
+      </c>
+      <c r="I17">
+        <v>550</v>
+      </c>
+      <c r="J17">
+        <v>251</v>
+      </c>
+      <c r="K17">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>591.6</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>145</v>
+      </c>
+      <c r="C18">
+        <v>1389</v>
+      </c>
+      <c r="D18">
+        <v>125</v>
+      </c>
+      <c r="E18">
+        <v>166</v>
+      </c>
+      <c r="F18">
+        <v>902</v>
+      </c>
+      <c r="G18">
+        <v>157</v>
+      </c>
+      <c r="H18">
+        <v>1114</v>
+      </c>
+      <c r="I18">
+        <v>728</v>
+      </c>
+      <c r="J18">
+        <v>1089</v>
+      </c>
+      <c r="K18">
+        <v>1253</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>706.8</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>1025</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>1310</v>
+      </c>
+      <c r="E19">
+        <v>1245</v>
+      </c>
+      <c r="F19">
+        <v>350</v>
+      </c>
+      <c r="G19">
+        <v>1024</v>
+      </c>
+      <c r="H19">
+        <v>183</v>
+      </c>
+      <c r="I19">
+        <v>796</v>
+      </c>
+      <c r="J19">
+        <v>443</v>
+      </c>
+      <c r="K19">
+        <v>94</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>651.79999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>1256</v>
+      </c>
+      <c r="D20">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <v>213</v>
+      </c>
+      <c r="F20">
+        <v>641</v>
+      </c>
+      <c r="G20">
+        <v>155</v>
+      </c>
+      <c r="H20">
+        <v>1036</v>
+      </c>
+      <c r="I20">
+        <v>526</v>
+      </c>
+      <c r="J20">
+        <v>1177</v>
+      </c>
+      <c r="K20">
+        <v>1145</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>624.79999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M23" t="s">
         <v>20</v>
       </c>
-      <c r="N23" t="e">
+      <c r="N23">
         <f>AVERAGE(L1:L20)</f>
-        <v>#DIV/0!</v>
+        <v>671.07499999999982</v>
       </c>
     </row>
   </sheetData>
